--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB90501-8841-43E6-8E1E-07D82AE969C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D53C1-6E4B-4B62-999A-FAA29418236E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="555" windowWidth="26190" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="管理" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="check_cell" comment="チェック欄の範囲" localSheetId="1">checksheet!$C$20:$C$20</definedName>
+    <definedName name="check_cell" comment="チェック欄の範囲" localSheetId="1">checksheet!$D$21:$D$21</definedName>
     <definedName name="check_cell_row" localSheetId="1">OFFSET(checksheet!check_cell, ROW()-ROW(checksheet!check_cell), 0, 1, COLUMNS(checksheet!check_cell))</definedName>
     <definedName name="check_item" comment="確認欄ドロップダウンリスト用">管理!$B$31:$B$37</definedName>
     <definedName name="check_today" comment="条件付き書式で参照する用">管理!$B$6</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>更新日：</t>
     <rPh sb="0" eb="3">
@@ -488,16 +488,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>残務時間</t>
-    <rPh sb="0" eb="2">
-      <t>ザンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>計画作業時間/確認欄</t>
     <rPh sb="0" eb="2">
       <t>ケイカク</t>
@@ -635,6 +625,26 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#result</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#estimated_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#execution_time</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#bug_ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#comment</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1451,382 +1461,6 @@
   <dxfs count="76">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639725"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4DE86"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2459,6 +2093,243 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4DE86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3147,6 +3018,145 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3174,60 +3184,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="75" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="B15:T16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="55">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="17">
       <calculatedColumnFormula>INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$12")</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="72" totalsRowDxfId="54" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="71" totalsRowDxfId="53" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="70" totalsRowDxfId="52" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$11"))</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="58" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="57" totalsRowDxfId="15" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="56" totalsRowDxfId="14" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$12"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="51">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$3"))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="13">
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$4"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="50">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$4"))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="12">
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$5"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="49">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$5"))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="11">
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$6"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="48">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$6"))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="10">
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$7"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="47">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,(H17+I17)/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="46">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",H16/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,H17/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="63" totalsRowDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="44" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$7")/1440)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="49" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$8")/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="43" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$8")/1440)</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$9")/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="42" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$13")/1440)</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="4" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$14")/1440)</calculatedColumnFormula>
       <totalsRowFormula>TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="41" dataCellStyle="ハイパーリンク">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&gt;0,1-SUBTOTAL(109,テーブル1[残務時間])/テーブル1[[#Totals],[作業時間（計画）]],"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="40" dataCellStyle="ハイパーリンク">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="2" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16="保留","-",IF(テーブル1[作業時間（計画）]&lt;&gt;テーブル1[残務時間], テーブル1[作業時間（実績）]/(テーブル1[作業時間（計画）]-テーブル1[残務時間]),"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&lt;&gt;SUBTOTAL(109,テーブル1[残務時間]), テーブル1[[#Totals],[作業時間（実績）]]/(テーブル1[[#Totals],[作業時間（計画）]]-SUBTOTAL(109,テーブル1[残務時間])),"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="57" totalsRowDxfId="39" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="56" totalsRowDxfId="38" dataCellStyle="ハイパーリンク">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="43" totalsRowDxfId="1" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="42" totalsRowDxfId="0" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3661,7 +3671,7 @@
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>39</v>
@@ -3682,7 +3692,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C8" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>32</v>
@@ -3770,7 +3780,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>43978</v>
+        <v>43991</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -3791,7 +3801,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -3819,7 +3829,7 @@
         <v>30</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>48</v>
@@ -3837,10 +3847,10 @@
         <v>8</v>
       </c>
       <c r="K15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>66</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>9</v>
@@ -3855,10 +3865,10 @@
         <v>52</v>
       </c>
       <c r="Q15" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="62" t="s">
         <v>61</v>
-      </c>
-      <c r="R15" s="62" t="s">
-        <v>62</v>
       </c>
       <c r="S15" s="62" t="s">
         <v>53</v>
@@ -3873,30 +3883,30 @@
       </c>
       <c r="C16" s="27" t="str">
         <f ca="1">INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$12")</f>
-        <v>-</v>
+        <v>ステータス</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="48" t="str">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$11"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$12"))</f>
         <v>チェック可</v>
       </c>
       <c r="G16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$3"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$4"))</f>
         <v>1</v>
       </c>
       <c r="H16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$4"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$5"))</f>
         <v>0</v>
       </c>
       <c r="I16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$5"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$6"))</f>
         <v>0</v>
       </c>
       <c r="J16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$6"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$7"))</f>
         <v>1</v>
       </c>
       <c r="K16" s="29">
@@ -3909,20 +3919,20 @@
       </c>
       <c r="M16" s="74"/>
       <c r="N16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$7")/1440)</f>
-        <v>6.9444444444444447E-4</v>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$8")/1440)</f>
+        <v>0</v>
       </c>
       <c r="O16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$8")/1440)</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$9")/1440)</f>
         <v>0</v>
       </c>
       <c r="P16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$13")/1440)</f>
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="Q16" s="66">
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$14")/1440)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="66" t="str">
         <f ca="1">IF($E16&lt;&gt;"","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="R16" s="66" t="str">
         <f ca="1">IF($E16="保留","-",IF(テーブル1[作業時間（計画）]&lt;&gt;テーブル1[残務時間], テーブル1[作業時間（実績）]/(テーブル1[作業時間（計画）]-テーブル1[残務時間]),"-"))</f>
@@ -3972,7 +3982,7 @@
       <c r="M17" s="54"/>
       <c r="N17" s="64">
         <f ca="1">SUBTOTAL(109,テーブル1[作業時間（計画）])</f>
-        <v>6.9444444444444447E-4</v>
+        <v>0</v>
       </c>
       <c r="O17" s="64">
         <f ca="1">SUBTOTAL(109,テーブル1[作業時間（実績）])</f>
@@ -3980,11 +3990,11 @@
       </c>
       <c r="P17" s="53" t="str">
         <f ca="1">TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</f>
-        <v>0:01 (0人日)</v>
-      </c>
-      <c r="Q17" s="67">
+        <v>0:00 (0人日)</v>
+      </c>
+      <c r="Q17" s="67" t="str">
         <f ca="1">IF(テーブル1[[#Totals],[作業時間（計画）]]&gt;0,1-SUBTOTAL(109,テーブル1[残務時間])/テーブル1[[#Totals],[作業時間（計画）]],"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="R17" s="67" t="str">
         <f ca="1">IF(テーブル1[[#Totals],[作業時間（計画）]]&lt;&gt;SUBTOTAL(109,テーブル1[残務時間]), テーブル1[[#Totals],[作業時間（実績）]]/(テーブル1[[#Totals],[作業時間（計画）]]-SUBTOTAL(109,テーブル1[残務時間])),"-")</f>
@@ -3998,12 +4008,12 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C16:L16 N16:T16">
-    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
       <formula>$E16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:K16 N16:T16">
-    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="9" stopIfTrue="1">
       <formula>AND($G16=$H16,AND($C16&lt;$D$11,$C16&lt;&gt;"-"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4022,49 +4032,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17">
-    <cfRule type="timePeriod" dxfId="35" priority="8" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="73" priority="8" timePeriod="today">
       <formula>FLOOR(C16,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I17">
-    <cfRule type="cellIs" dxfId="34" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="33" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="10" stopIfTrue="1" operator="equal">
       <formula>"チェック完了"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="11" stopIfTrue="1" operator="equal">
       <formula>"チェック不可"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="18" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J17">
-    <cfRule type="cellIs" dxfId="30" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I17">
-    <cfRule type="expression" dxfId="29" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="41" stopIfTrue="1">
       <formula>$H16=$G16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="28" priority="6" stopIfTrue="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="66" priority="6" stopIfTrue="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
+    <cfRule type="containsText" dxfId="65" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
       <formula>NOT(ISERROR(SEARCH("遅延",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R17">
-    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4135,79 +4145,74 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:P20"/>
+  <dimension ref="B1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="19" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="20" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="42" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="42" customWidth="1"/>
-    <col min="4" max="5" width="14.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="42" customWidth="1"/>
-    <col min="8" max="8" width="21.25" style="42" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.125" style="42" customWidth="1"/>
-    <col min="14" max="15" width="17.25" style="42" customWidth="1"/>
-    <col min="16" max="16" width="9" style="42" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="0" style="42" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="42" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="42" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="42" customWidth="1"/>
+    <col min="5" max="6" width="14.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" style="42" customWidth="1"/>
+    <col min="9" max="9" width="21.25" style="42" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.125" style="42" customWidth="1"/>
+    <col min="15" max="16" width="17.25" style="42" customWidth="1"/>
+    <col min="17" max="17" width="9" style="42" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4"/>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B2" s="4"/>
+      <c r="C2" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="38">
-        <f t="array" ref="C3">COUNTIF(check_cell,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell)="○")*(VALUE(RIGHT(check_cell,6))&lt;VALUE(start_date)), 1), 0))</f>
+      <c r="D4" s="38">
+        <f t="array" ref="D4">COUNTIF(check_cell,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell)="○")*(VALUE(RIGHT(check_cell,6))&lt;VALUE(start_date)), 1), 0))</f>
         <v>1</v>
       </c>
-      <c r="D3" s="38">
-        <f ca="1">SUM(OFFSET(M20,0, 0, ROWS(check_cell),1))</f>
+      <c r="E4" s="38">
+        <f ca="1">SUM(OFFSET(N21,0, 0, ROWS(check_cell),1))</f>
         <v>1</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="38">
-        <f t="array" ref="C4">SUM(IFERROR(IF((LEFT(check_cell)="○") * (VALUE(RIGHT(check_cell,6))&gt;=VALUE(start_date)), 1), 0))</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="39">
-        <f ca="1">SUM(OFFSET(N20,0, 0, ROWS(check_cell),1))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -4215,416 +4220,436 @@
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="38">
-        <f>COUNTIF(check_cell,"×*")</f>
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="38">
+        <f t="array" ref="D5">SUM(IFERROR(IF((LEFT(check_cell)="○") * (VALUE(RIGHT(check_cell,6))&gt;=VALUE(start_date)), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="38"/>
+      <c r="E5" s="39">
+        <f ca="1">SUM(OFFSET(O21,0, 0, ROWS(check_cell),1))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="38">
-        <f>C3-(C4+C5)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="38"/>
+      <c r="N5" s="38"/>
+    </row>
+    <row r="6" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="38">
+        <f>COUNTIF(check_cell,"×*")</f>
+        <v>0</v>
+      </c>
       <c r="E6" s="38"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="38">
-        <f t="array" aca="1" ref="C7" ca="1">SUM(OFFSET(M20,0, 0, ROWS(check_cell),1)*OFFSET(O20,0, 0, ROWS(check_cell),1))</f>
+      <c r="N6" s="38"/>
+    </row>
+    <row r="7" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="38">
+        <f>D4-(D5+D6)</f>
         <v>1</v>
       </c>
-      <c r="D7" s="38"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="38">
-        <f ca="1">SUM(OFFSET(E20,0, 0, ROWS(check_cell),1))</f>
+      <c r="N7" s="38"/>
+    </row>
+    <row r="8" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="array" aca="1" ref="D8" ca="1">SUM(OFFSET(N21,0, 0, ROWS(check_cell),1)*OFFSET(P21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="D8" s="38"/>
       <c r="E8" s="38"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="38">
-        <f ca="1">COUNTIF(OFFSET(K20,0, 0, ROWS(check_cell),1), "チェック可")</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="38"/>
+      <c r="N8" s="38"/>
+    </row>
+    <row r="9" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="38">
+        <f ca="1">SUM(OFFSET(F21,0, 0, ROWS(check_cell),1))</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="38"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
-    </row>
-    <row r="10" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="38">
-        <f ca="1">COUNTIF(OFFSET(K20,0, 0, ROWS(check_cell),1), "*チェック*可")</f>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="38">
+        <f ca="1">COUNTIF(OFFSET(L21,0, 0, ROWS(check_cell),1), "チェック可")</f>
         <v>1</v>
       </c>
-      <c r="D10" s="38"/>
       <c r="E10" s="38"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="38" t="str">
-        <f ca="1">IF(C10=0, "チェック完了", IF(C9=C10, "チェック可", IF(C9+COUNTIF(OFFSET(K20,0, 0, ROWS(check_cell),1), "一部チェック可")=0, "チェック不可", "一部チェック可")))</f>
-        <v>チェック可</v>
-      </c>
-      <c r="D11" s="38"/>
+      <c r="N10" s="38"/>
+    </row>
+    <row r="11" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="38">
+        <f ca="1">COUNTIF(OFFSET(L21,0, 0, ROWS(check_cell),1), "*チェック*可")</f>
+        <v>1</v>
+      </c>
       <c r="E11" s="38"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
-    </row>
-    <row r="12" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="45" t="str">
-        <f t="array" ref="C12">IF(last_update &gt; 0, last_update, "-")</f>
-        <v>-</v>
-      </c>
-      <c r="D12" s="38"/>
+      <c r="N11" s="38"/>
+    </row>
+    <row r="12" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="38" t="str">
+        <f ca="1">IF(D11=0, "チェック完了", IF(D10=D11, "チェック可", IF(D10+COUNTIF(OFFSET(L21,0, 0, ROWS(check_cell),1), "一部チェック可")=0, "チェック不可", "一部チェック可")))</f>
+        <v>チェック可</v>
+      </c>
       <c r="E12" s="38"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="38">
-        <f t="array" aca="1" ref="C13" ca="1">SUM(OFFSET(P20,0, 0, ROWS(check_cell),1))</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="38"/>
+      <c r="N12" s="38"/>
+    </row>
+    <row r="13" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="45" t="str">
+        <f t="array" ref="D13">IF(last_update &gt; 0, last_update, "-")</f>
+        <v>-</v>
+      </c>
       <c r="E13" s="38"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-    </row>
-    <row r="14" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="41"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="N13" s="38"/>
+    </row>
+    <row r="14" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="array" aca="1" ref="D14" ca="1">SUM(OFFSET(Q21,0, 0, ROWS(check_cell),1))</f>
+        <v>0</v>
+      </c>
       <c r="E14" s="38"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
-    </row>
-    <row r="15" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="41"/>
-      <c r="C15" s="38"/>
+      <c r="N14" s="38"/>
+    </row>
+    <row r="15" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="41"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="38"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
-    </row>
-    <row r="16" spans="1:13" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="41"/>
-      <c r="C16" s="38"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="41"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="2:16" s="36" customFormat="1" collapsed="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-    </row>
-    <row r="18" spans="2:16" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="37"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="3:17" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="41"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" s="36" customFormat="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="C18" s="37"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="43" t="s">
+      <c r="D18" s="37"/>
+    </row>
+    <row r="19" spans="3:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C20" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="D20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="E20" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="G20" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="44" t="s">
+      <c r="L20" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="M19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B20" s="77" t="s">
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.15">
+      <c r="C21" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="71">
-        <v>1</v>
-      </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="46" t="str">
-        <f>IFERROR(MID(checksheet!check_cell, 5, FIND(I20,checksheet!check_cell)-5-3),"")</f>
+      <c r="D21" s="76"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="46" t="str">
+        <f>IFERROR(MID(checksheet!check_cell, 5, FIND(J21,checksheet!check_cell)-5-3),"")</f>
         <v/>
       </c>
-      <c r="I20" s="69" t="str">
+      <c r="J21" s="69" t="str">
         <f>IF(ISERROR(VALUE(RIGHT(checksheet!check_cell,6))),"",MID(LEFT(checksheet!check_cell, LEN(checksheet!check_cell) - 9),FIND("/", checksheet!check_cell, 5)+2,LEN(checksheet!check_cell)))</f>
         <v/>
       </c>
-      <c r="J20" s="70" t="str">
+      <c r="K21" s="70" t="str">
         <f>IF(ISERROR(VALUE(RIGHT(checksheet!check_cell,6))),"",DATE("20"&amp;LEFT(RIGHT(checksheet!check_cell,6),2),LEFT(RIGHT(checksheet!check_cell,4),2),RIGHT(checksheet!check_cell,2)))</f>
         <v/>
       </c>
-      <c r="K20" s="57" t="str">
+      <c r="L21" s="57" t="str">
         <f ca="1">IF( COUNTBLANK(check_cell_row) + COUNTIF(check_cell_row, "×*") + COUNTIF(check_cell_row, "検証中*") &gt; 0, IF( COUNTIF(check_cell_row, "~&lt; 未実装*") &gt; 0, "一部チェック可", "チェック可"), IF( COUNTIF(check_cell_row, "~&lt; 未実装*") &gt; 0, "チェック不可", IF( COUNTIF(check_cell_row, "○*") &gt; 0, "チェック完了", "-")))</f>
         <v>チェック可</v>
       </c>
-      <c r="M20" s="42">
-        <f t="array" aca="1" ref="M20" ca="1">COUNTIF(check_cell_row,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell_row)="○")*(VALUE(RIGHT(check_cell_row,6))&lt;VALUE(start_date)), 1), 0))</f>
+      <c r="N21" s="42">
+        <f t="array" aca="1" ref="N21" ca="1">COUNTIF(check_cell_row,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell_row)="○")*(VALUE(RIGHT(check_cell_row,6))&lt;VALUE(start_date)), 1), 0))</f>
         <v>1</v>
       </c>
-      <c r="N20" s="42">
-        <f t="array" aca="1" ref="N20" ca="1">SUM(IFERROR(IF((LEFT(check_cell_row)="○") * (VALUE(RIGHT(check_cell_row,6))&gt;=VALUE(start_date)), 1), 0))</f>
+      <c r="O21" s="42">
+        <f t="array" aca="1" ref="O21" ca="1">SUM(IFERROR(IF((LEFT(check_cell_row)="○") * (VALUE(RIGHT(check_cell_row,6))&gt;=VALUE(start_date)), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="O20" s="42">
-        <f t="array" aca="1" ref="O20" ca="1">IF(COUNTIF(check_cell_row,"&lt;&gt;-")=0, 0, D20/COUNTIF(check_cell_row,"&lt;&gt;-"))</f>
-        <v>1</v>
-      </c>
-      <c r="P20" s="42">
-        <f ca="1">(M20-N20)*O20</f>
-        <v>1</v>
+      <c r="P21" s="42">
+        <f t="array" aca="1" ref="P21" ca="1">IF(COUNTIF(check_cell_row,"&lt;&gt;-")=0, 0, E21/COUNTIF(check_cell_row,"&lt;&gt;-"))</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="42">
+        <f ca="1">(N21-O21)*P21</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="containsText" dxfId="23" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
-      <formula>NOT(ISERROR(SEARCH("チェック可",K20)))</formula>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="containsText" dxfId="41" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
+      <formula>NOT(ISERROR(SEARCH("チェック可",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
-      <formula>NOT(ISERROR(SEARCH("チェック完了",K20)))</formula>
+    <cfRule type="containsText" dxfId="40" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
+      <formula>NOT(ISERROR(SEARCH("チェック完了",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" stopIfTrue="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH("*-",K20)))</formula>
+    <cfRule type="containsText" dxfId="39" priority="21" stopIfTrue="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH("*-",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
-      <formula>NOT(ISERROR(SEARCH("チェック不可",K20)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
+      <formula>NOT(ISERROR(SEARCH("チェック不可",L21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
-      <formula>NOT(ISERROR(SEARCH("一部チェック可",K20)))</formula>
+    <cfRule type="containsText" dxfId="37" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
+      <formula>NOT(ISERROR(SEARCH("一部チェック可",L21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
-      <formula>COUNTIF(B20,"*※※*")</formula>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+      <formula>COUNTIF(C21,"*※※*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
-      <formula>COUNTIF(B20,"【*】*")</formula>
+    <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
+      <formula>COUNTIF(C21,"【*】*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
-      <formula>AND(COUNTIF(B20,"*低優先度*"),$K20&lt;&gt;"-")</formula>
+    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
+      <formula>AND(COUNTIF(C21,"*低優先度*"),$L21&lt;&gt;"-")</formula>
     </cfRule>
     <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>COUNTIF($K20,"*チェック可")&gt;0</formula>
+      <formula>COUNTIF($L21,"*チェック可")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
-      <formula>$K20="チェック不可"</formula>
+    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
+      <formula>$L21="チェック不可"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
+  <conditionalFormatting sqref="A2:XFD2">
     <cfRule type="expression" priority="51" stopIfTrue="1">
-      <formula>$C$3=$C$4</formula>
+      <formula>$D$4=$D$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="52" stopIfTrue="1">
-      <formula>COUNTIF($C$11,"*チェック可")&gt;0</formula>
+    <cfRule type="expression" dxfId="31" priority="52" stopIfTrue="1">
+      <formula>COUNTIF($D$12,"*チェック可")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="54" stopIfTrue="1">
-      <formula>$C$11="チェック不可"</formula>
+    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+      <formula>$D$12="チェック不可"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="expression" dxfId="11" priority="71">
-      <formula>AND($E20="",COUNTIFS($C20,"○*")&gt;0)</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="expression" dxfId="29" priority="71">
+      <formula>AND($F21="",COUNTIFS($D21,"○*")&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="10" priority="72">
-      <formula>AND($D20="",COUNTIFS($C20,"-*")=0)</formula>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="expression" dxfId="28" priority="72">
+      <formula>AND($E21="",COUNTIFS($D21,"-*")=0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="チェック不可">
-      <formula>NOT(ISERROR(SEARCH("チェック不可",C20)))</formula>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="チェック不可">
+      <formula>NOT(ISERROR(SEARCH("チェック不可",D21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="19" stopIfTrue="1">
-      <formula>AND(COUNTIF(C20,"○*"),VALUE(RIGHT(C20,6))&lt; VALUE(start_date))</formula>
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
+      <formula>AND(COUNTIF(D21,"○*"),VALUE(RIGHT(D21,6))&lt; VALUE(start_date))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="22">
-      <formula>COUNTIF(C20,"*" &amp; check_today)</formula>
+    <cfRule type="expression" dxfId="25" priority="22">
+      <formula>COUNTIF(D21,"*" &amp; check_today)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="25" stopIfTrue="1" operator="containsText" text="×*">
-      <formula>NOT(ISERROR(SEARCH("×*",C20)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="25" stopIfTrue="1" operator="containsText" text="×*">
+      <formula>NOT(ISERROR(SEARCH("×*",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="26" stopIfTrue="1" operator="containsText" text="○*">
-      <formula>NOT(ISERROR(SEARCH("○*",C20)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="26" stopIfTrue="1" operator="containsText" text="○*">
+      <formula>NOT(ISERROR(SEARCH("○*",D21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="27">
-      <formula>COUNTIF(C20,"*" &amp; tester)</formula>
+    <cfRule type="expression" dxfId="22" priority="27">
+      <formula>COUNTIF(D21,"*" &amp; tester)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
-      <formula>NOT(ISERROR(SEARCH("検証中",C20)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
+      <formula>NOT(ISERROR(SEARCH("検証中",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
-      <formula>NOT(ISERROR(SEARCH("*低優先度*",C20)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
+      <formula>NOT(ISERROR(SEARCH("*低優先度*",D21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49" stopIfTrue="1">
-      <formula>LEFT(C20,1)="-"</formula>
+    <cfRule type="expression" dxfId="19" priority="49" stopIfTrue="1">
+      <formula>LEFT(D21,1)="-"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
-      <formula>NOT(ISERROR(SEARCH("*未実装*",C20)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
+      <formula>NOT(ISERROR(SEARCH("*未実装*",D21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>check_item</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="半角でID（番号）のみをコンマ区切りで記載" sqref="F20" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="※バグについては記載不要（バグに関する情報はBTkへ集約）_x000a_補足した方が望ましいものがあれば記載_x000a_・具体的な数値_x000a_・チェック箇所・回数_x000a_・特殊な確認環境（試作筐体、デバッグ機能使用等）_x000a_等_x000a_" sqref="G20" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:E20" xr:uid="{1E3710D6-158C-47A5-9BB9-9D33863C7C15}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="半角でID（番号）のみをコンマ区切りで記載" sqref="G21" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="※バグについては記載不要（バグに関する情報はBTkへ集約）_x000a_補足した方が望ましいものがあれば記載_x000a_・具体的な数値_x000a_・チェック箇所・回数_x000a_・特殊な確認環境（試作筐体、デバッグ機能使用等）_x000a_等_x000a_" sqref="H21" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:F21" xr:uid="{1E3710D6-158C-47A5-9BB9-9D33863C7C15}">
       <formula1>0.25</formula1>
     </dataValidation>
   </dataValidations>
@@ -4671,7 +4696,7 @@
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>200527</v>
+        <v>200609</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
@@ -4730,7 +4755,7 @@
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
@@ -4747,13 +4772,13 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B27" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200527</v>
+        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200609</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
@@ -4764,13 +4789,13 @@
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200527</v>
+        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200609</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200527</v>
+        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200609</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D53C1-6E4B-4B62-999A-FAA29418236E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE17ACE-4359-4C72-A4B4-C2421CC658A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -4151,7 +4151,7 @@
       <pane xSplit="3" ySplit="20" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -4455,18 +4455,7 @@
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>55</v>
-      </c>
+      <c r="N17" s="38"/>
     </row>
     <row r="18" spans="3:17" s="36" customFormat="1" collapsed="1" x14ac:dyDescent="0.15">
       <c r="C18" s="37"/>
@@ -4506,6 +4495,18 @@
       </c>
       <c r="L20" s="44" t="s">
         <v>48</v>
+      </c>
+      <c r="N20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.15">
@@ -4696,7 +4697,7 @@
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>200609</v>
+        <v>200610</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
@@ -4778,7 +4779,7 @@
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200609</v>
+        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200610</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
@@ -4789,13 +4790,13 @@
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200609</v>
+        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200610</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200609</v>
+        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200610</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE17ACE-4359-4C72-A4B4-C2421CC658A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9C85B4-8CDF-4547-BFAA-2AB47A6502F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="1350" windowWidth="26190" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -3189,7 +3189,7 @@
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="17">
-      <calculatedColumnFormula>INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$12")</calculatedColumnFormula>
+      <calculatedColumnFormula>INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$13")</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="58" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>43992</v>
+        <v>43998</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -3882,8 +3882,8 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="str">
-        <f ca="1">INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!C$12")</f>
-        <v>ステータス</v>
+        <f ca="1">INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$13")</f>
+        <v>-</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>22</v>
@@ -4697,7 +4697,7 @@
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>200610</v>
+        <v>200616</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
@@ -4779,7 +4779,7 @@
     <row r="28" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200610</v>
+        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200616</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.15">
@@ -4790,13 +4790,13 @@
     <row r="31" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200610</v>
+        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200616</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200610</v>
+        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200616</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9C85B4-8CDF-4547-BFAA-2AB47A6502F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B72E2-642D-40BC-8801-19478B68C6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="1350" windowWidth="26190" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1005" windowWidth="26190" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -39,6 +39,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>中島伸介</author>
+  </authors>
+  <commentList>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{B8906772-F5E9-4797-8710-F51F24B456AD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>メインが存在しない場合は - としてください</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
@@ -656,7 +681,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +868,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -3565,7 +3598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3575,7 +3608,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="4.375" hidden="1" customWidth="1"/>
@@ -3597,7 +3630,7 @@
     <col min="21" max="21" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="18.75">
       <c r="C1" s="58" t="s">
         <v>51</v>
       </c>
@@ -3616,7 +3649,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -3642,13 +3675,13 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="C4" s="49" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="14.25" thickBot="1"/>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1">
       <c r="C6" s="14" t="s">
         <v>40</v>
       </c>
@@ -3669,7 +3702,7 @@
       <c r="R6" s="47"/>
       <c r="S6" s="47"/>
     </row>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="13.5" customHeight="1">
       <c r="C7" s="55" t="s">
         <v>62</v>
       </c>
@@ -3690,7 +3723,7 @@
       <c r="R7" s="47"/>
       <c r="S7" s="47"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="C8" s="16" t="s">
         <v>63</v>
       </c>
@@ -3711,7 +3744,7 @@
       <c r="R8" s="47"/>
       <c r="S8" s="47"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="C9" s="18" t="s">
         <v>1</v>
       </c>
@@ -3732,7 +3765,7 @@
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="C10" s="18" t="s">
         <v>2</v>
       </c>
@@ -3753,7 +3786,7 @@
       <c r="R10" s="47"/>
       <c r="S10" s="47"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="C11" s="18" t="s">
         <v>34</v>
       </c>
@@ -3774,13 +3807,13 @@
       <c r="R11" s="47"/>
       <c r="S11" s="47"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -3796,7 +3829,7 @@
       <c r="R12" s="47"/>
       <c r="S12" s="47"/>
     </row>
-    <row r="13" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="14.25" thickBot="1">
       <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
@@ -3817,8 +3850,8 @@
       <c r="R13" s="47"/>
       <c r="S13" s="47"/>
     </row>
-    <row r="14" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="14.25" thickBot="1"/>
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="14.25" thickBot="1">
       <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
@@ -3877,7 +3910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="B16">
         <v>1</v>
       </c>
@@ -3944,7 +3977,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:20" s="12" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="12" customFormat="1" ht="14.25" thickBot="1">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -4003,7 +4036,7 @@
       <c r="S17" s="53"/>
       <c r="T17" s="53"/>
     </row>
-    <row r="20" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:20" ht="13.5" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
@@ -4088,8 +4121,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4154,7 +4188,7 @@
       <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="0" style="42" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="2.5" style="42" customWidth="1"/>
@@ -4173,7 +4207,7 @@
     <col min="18" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:14" hidden="1">
       <c r="D1" s="42" t="s">
         <v>75</v>
       </c>
@@ -4190,17 +4224,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:14" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" s="35" customFormat="1" ht="18.75">
       <c r="B2" s="4"/>
       <c r="C2" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:14" s="36" customFormat="1">
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
     </row>
-    <row r="4" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C4" s="38" t="s">
         <v>13</v>
       </c>
@@ -4222,7 +4256,7 @@
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
     </row>
-    <row r="5" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C5" s="39" t="s">
         <v>14</v>
       </c>
@@ -4244,7 +4278,7 @@
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
     </row>
-    <row r="6" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C6" s="40" t="s">
         <v>15</v>
       </c>
@@ -4263,7 +4297,7 @@
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
     </row>
-    <row r="7" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C7" s="41" t="s">
         <v>18</v>
       </c>
@@ -4282,7 +4316,7 @@
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C8" s="41" t="s">
         <v>27</v>
       </c>
@@ -4301,7 +4335,7 @@
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
     </row>
-    <row r="9" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C9" s="41" t="s">
         <v>28</v>
       </c>
@@ -4320,7 +4354,7 @@
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
     </row>
-    <row r="10" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C10" s="41" t="s">
         <v>50</v>
       </c>
@@ -4339,7 +4373,7 @@
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
     </row>
-    <row r="11" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C11" s="41" t="s">
         <v>49</v>
       </c>
@@ -4358,7 +4392,7 @@
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
     </row>
-    <row r="12" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C12" s="41" t="s">
         <v>48</v>
       </c>
@@ -4377,7 +4411,7 @@
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
     </row>
-    <row r="13" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C13" s="41" t="s">
         <v>4</v>
       </c>
@@ -4396,7 +4430,7 @@
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
     </row>
-    <row r="14" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C14" s="41" t="s">
         <v>55</v>
       </c>
@@ -4415,7 +4449,7 @@
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
     </row>
-    <row r="15" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C15" s="41"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
@@ -4429,7 +4463,7 @@
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
     </row>
-    <row r="16" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C16" s="41"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -4443,7 +4477,7 @@
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
     </row>
-    <row r="17" spans="3:17" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:17" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="C17" s="41"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -4457,15 +4491,15 @@
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
     </row>
-    <row r="18" spans="3:17" s="36" customFormat="1" collapsed="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:17" s="36" customFormat="1" collapsed="1">
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
     </row>
-    <row r="19" spans="3:17" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:17" s="36" customFormat="1">
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:17">
       <c r="C20" s="43" t="s">
         <v>16</v>
       </c>
@@ -4509,7 +4543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:17">
       <c r="C21" s="77" t="s">
         <v>31</v>
       </c>
@@ -4670,7 +4704,7 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.5" style="33" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="33" customWidth="1"/>
@@ -4678,152 +4712,152 @@
     <col min="4" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" s="33" t="str">
         <f>index!D13</f>
         <v>$_TESTER$</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>200616</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+        <v>200618</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:2">
       <c r="B9" s="51" t="str">
         <f>TEXT(IF(ISNUMBER(index!D11), index!D11,1),"yymmdd")</f>
         <v>000101</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2">
       <c r="B11" s="33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2">
       <c r="B12" s="33" t="str">
         <f>"- 対象外（" &amp; index!D6 &amp;"） -"</f>
         <v>- 対象外（$VERSION$） -</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:2">
       <c r="B14" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2">
       <c r="B15" s="33" t="str">
         <f>"- 低優先度 -"</f>
         <v>- 低優先度 -</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" s="33" t="str">
         <f>"検証中 / " &amp; index!D13</f>
         <v>検証中 / $_TESTER$</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2">
       <c r="B24" s="33" t="str">
         <f>"MN:(" &amp; index!D7 &amp;"), STA:(" &amp;  index!D8  &amp; ")"</f>
         <v>MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$)</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2">
       <c r="B25" s="33" t="str">
         <f>IF( index!D7="",  index!D8, B24)</f>
         <v>MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$)</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:2">
       <c r="B27" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:2">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200616</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200618</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
       <c r="B30" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:2">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200616</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200618</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200616</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200618</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" s="33" t="str">
         <f>B18</f>
         <v>検証中 / $_TESTER$</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:2">
       <c r="B34" s="33" t="str">
         <f>B21</f>
         <v>&lt; 未実装 &gt;</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:2">
       <c r="B35" s="33" t="str">
         <f>B12</f>
         <v>- 対象外（$VERSION$） -</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:2">
       <c r="B36" s="33" t="str">
         <f>B15</f>
         <v>- 低優先度 -</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:2">
       <c r="B37" s="33" t="s">
         <v>10</v>
       </c>

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318B72E2-642D-40BC-8801-19478B68C6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7142E161-3A45-4875-BBAB-05357D764A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1005" windowWidth="26190" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="315" windowWidth="26190" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="管理" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="check_cell" comment="チェック欄の範囲" localSheetId="1">checksheet!$D$21:$D$21</definedName>
+    <definedName name="check_cell" comment="チェック欄の範囲" localSheetId="1">checksheet!$E$21:$E$21</definedName>
     <definedName name="check_cell_row" localSheetId="1">OFFSET(checksheet!check_cell, ROW()-ROW(checksheet!check_cell), 0, 1, COLUMNS(checksheet!check_cell))</definedName>
     <definedName name="check_item" comment="確認欄ドロップダウンリスト用">管理!$B$31:$B$37</definedName>
     <definedName name="check_today" comment="条件付き書式で参照する用">管理!$B$6</definedName>
@@ -1230,7 +1230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,6 +1470,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -3222,25 +3225,25 @@
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="17">
-      <calculatedColumnFormula>INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$13")</calculatedColumnFormula>
+      <calculatedColumnFormula>INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[$H_ITEM$]))</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="58" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="57" totalsRowDxfId="15" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="56" totalsRowDxfId="14" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$12"))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="13">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$4"))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="12">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$5"))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="11">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$6"))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="10">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$7"))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
@@ -3252,13 +3255,13 @@
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="49" totalsRowDxfId="7"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$8")/1440)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$9")/1440)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="4" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$14")/1440)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
       <totalsRowFormula>TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</totalsRowFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
@@ -3813,7 +3816,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>44000</v>
+        <v>44017</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -3915,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="str">
-        <f ca="1">INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$13")</f>
+        <f ca="1">INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[$H_ITEM$]))</f>
         <v>-</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -3923,23 +3926,23 @@
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="48" t="str">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$12"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[$H_ITEM$])))</f>
         <v>チェック可</v>
       </c>
       <c r="G16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$4"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[$H_ITEM$])))</f>
         <v>1</v>
       </c>
       <c r="H16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$5"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[$H_ITEM$])))</f>
         <v>0</v>
       </c>
       <c r="I16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$6"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[$H_ITEM$])))</f>
         <v>0</v>
       </c>
       <c r="J16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$7"))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[$H_ITEM$])))</f>
         <v>1</v>
       </c>
       <c r="K16" s="29">
@@ -3952,15 +3955,15 @@
       </c>
       <c r="M16" s="74"/>
       <c r="N16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$8")/1440)</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[$H_ITEM$]))/1440)</f>
         <v>0</v>
       </c>
       <c r="O16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$9")/1440)</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[$H_ITEM$]))/1440)</f>
         <v>0</v>
       </c>
       <c r="P16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT("'"&amp;テーブル1[$H_ITEM$]&amp;"'"&amp;"!D$14")/1440)</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[$H_ITEM$]))/1440)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="66" t="str">
@@ -4179,74 +4182,75 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="B1:Q21"/>
+  <dimension ref="B1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="20" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="20" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="0" style="42" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="2.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="42" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="42" customWidth="1"/>
-    <col min="5" max="6" width="14.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" style="42" customWidth="1"/>
-    <col min="9" max="9" width="21.25" style="42" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.125" style="42" customWidth="1"/>
-    <col min="15" max="16" width="17.25" style="42" customWidth="1"/>
-    <col min="17" max="17" width="9" style="42" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="42"/>
+    <col min="3" max="3" width="2.5" style="42" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="42" customWidth="1"/>
+    <col min="6" max="7" width="14.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" style="42" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="42" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.125" style="42" customWidth="1"/>
+    <col min="16" max="17" width="17.25" style="42" customWidth="1"/>
+    <col min="18" max="18" width="9" style="42" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" hidden="1">
-      <c r="D1" s="42" t="s">
+    <row r="1" spans="2:15" hidden="1">
+      <c r="E1" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="2:14" s="35" customFormat="1" ht="18.75">
+    <row r="2" spans="2:15" s="35" customFormat="1" ht="18.75">
       <c r="B2" s="4"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="36" customFormat="1">
-      <c r="C3" s="37"/>
+    <row r="3" spans="2:15" s="36" customFormat="1">
       <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C4" s="38" t="s">
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="38">
-        <f t="array" ref="D4">COUNTIF(check_cell,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell)="○")*(VALUE(RIGHT(check_cell,6))&lt;VALUE(start_date)), 1), 0))</f>
+      <c r="E4" s="38">
+        <f t="array" ref="E4">COUNTIF(check_cell,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell)="○")*(VALUE(RIGHT(check_cell,6))&lt;VALUE(start_date)), 1), 0))</f>
         <v>1</v>
       </c>
-      <c r="E4" s="38">
-        <f ca="1">SUM(OFFSET(N21,0, 0, ROWS(check_cell),1))</f>
+      <c r="F4" s="38">
+        <f ca="1">SUM(OFFSET(O21,0, 0, ROWS(check_cell),1))</f>
         <v>1</v>
       </c>
-      <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -4255,371 +4259,376 @@
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
-    </row>
-    <row r="5" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C5" s="39" t="s">
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="38">
-        <f t="array" ref="D5">SUM(IFERROR(IF((LEFT(check_cell)="○") * (VALUE(RIGHT(check_cell,6))&gt;=VALUE(start_date)), 1), 0))</f>
+      <c r="E5" s="38">
+        <f t="array" ref="E5">SUM(IFERROR(IF((LEFT(check_cell)="○") * (VALUE(RIGHT(check_cell,6))&gt;=VALUE(start_date)), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="39">
-        <f ca="1">SUM(OFFSET(O21,0, 0, ROWS(check_cell),1))</f>
+      <c r="F5" s="39">
+        <f ca="1">SUM(OFFSET(P21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
-    </row>
-    <row r="6" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C6" s="40" t="s">
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="38">
+      <c r="E6" s="38">
         <f>COUNTIF(check_cell,"×*")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="38"/>
       <c r="F6" s="38"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
       <c r="N6" s="38"/>
-    </row>
-    <row r="7" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C7" s="41" t="s">
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="38">
-        <f>D4-(D5+D6)</f>
+      <c r="E7" s="38">
+        <f>E4-(E5+E6)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="38"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
-    </row>
-    <row r="8" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C8" s="41" t="s">
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="38">
-        <f t="array" aca="1" ref="D8" ca="1">SUM(OFFSET(N21,0, 0, ROWS(check_cell),1)*OFFSET(P21,0, 0, ROWS(check_cell),1))</f>
+      <c r="E8" s="38">
+        <f t="array" aca="1" ref="E8" ca="1">SUM(OFFSET(O21,0, 0, ROWS(check_cell),1)*OFFSET(Q21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="38"/>
       <c r="F8" s="38"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
       <c r="N8" s="38"/>
-    </row>
-    <row r="9" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C9" s="41" t="s">
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D9" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="38">
-        <f ca="1">SUM(OFFSET(F21,0, 0, ROWS(check_cell),1))</f>
+      <c r="E9" s="38">
+        <f ca="1">SUM(OFFSET(G21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="38"/>
       <c r="F9" s="38"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
       <c r="K9" s="38"/>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
       <c r="N9" s="38"/>
-    </row>
-    <row r="10" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C10" s="41" t="s">
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D10" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="38">
-        <f ca="1">COUNTIF(OFFSET(L21,0, 0, ROWS(check_cell),1), "チェック可")</f>
+      <c r="E10" s="38">
+        <f ca="1">COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "チェック可")</f>
         <v>1</v>
       </c>
-      <c r="E10" s="38"/>
       <c r="F10" s="38"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
-    </row>
-    <row r="11" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C11" s="41" t="s">
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D11" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="38">
-        <f ca="1">COUNTIF(OFFSET(L21,0, 0, ROWS(check_cell),1), "*チェック*可")</f>
+      <c r="E11" s="38">
+        <f ca="1">COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "*チェック*可")</f>
         <v>1</v>
       </c>
-      <c r="E11" s="38"/>
       <c r="F11" s="38"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
-    </row>
-    <row r="12" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C12" s="41" t="s">
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D12" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="38" t="str">
-        <f ca="1">IF(D11=0, "チェック完了", IF(D10=D11, "チェック可", IF(D10+COUNTIF(OFFSET(L21,0, 0, ROWS(check_cell),1), "一部チェック可")=0, "チェック不可", "一部チェック可")))</f>
+      <c r="E12" s="38" t="str">
+        <f ca="1">IF(E11=0, "チェック完了", IF(E10=E11, "チェック可", IF(E10+COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "一部チェック可")=0, "チェック不可", "一部チェック可")))</f>
         <v>チェック可</v>
       </c>
-      <c r="E12" s="38"/>
       <c r="F12" s="38"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
-    </row>
-    <row r="13" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C13" s="41" t="s">
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="45" t="str">
-        <f t="array" ref="D13">IF(last_update &gt; 0, last_update, "-")</f>
+      <c r="E13" s="45" t="str">
+        <f t="array" ref="E13">IF(last_update &gt; 0, last_update, "-")</f>
         <v>-</v>
       </c>
-      <c r="E13" s="38"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
       <c r="N13" s="38"/>
-    </row>
-    <row r="14" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C14" s="41" t="s">
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D14" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="38">
-        <f t="array" aca="1" ref="D14" ca="1">SUM(OFFSET(Q21,0, 0, ROWS(check_cell),1))</f>
+      <c r="E14" s="38">
+        <f t="array" aca="1" ref="E14" ca="1">SUM(OFFSET(R21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="38"/>
       <c r="F14" s="38"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
       <c r="N14" s="38"/>
-    </row>
-    <row r="15" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C15" s="41"/>
-      <c r="D15" s="38"/>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D15" s="41"/>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
       <c r="N15" s="38"/>
-    </row>
-    <row r="16" spans="2:14" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C16" s="41"/>
-      <c r="D16" s="38"/>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D16" s="41"/>
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
-    </row>
-    <row r="17" spans="3:17" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="C17" s="41"/>
-      <c r="D17" s="38"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="2:18" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D17" s="41"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
-    </row>
-    <row r="18" spans="3:17" s="36" customFormat="1" collapsed="1">
-      <c r="C18" s="37"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="2:18" s="36" customFormat="1" collapsed="1">
       <c r="D18" s="37"/>
-    </row>
-    <row r="19" spans="3:17" s="36" customFormat="1">
-      <c r="C19" s="37"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="2:18" s="36" customFormat="1">
       <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="3:17">
-      <c r="C20" s="43" t="s">
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="E20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="F20" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="G20" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="H20" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="I20" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="J20" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="K20" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="L20" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="M20" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="O20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="42" t="s">
+      <c r="P20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="42" t="s">
+      <c r="Q20" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="Q20" s="42" t="s">
+      <c r="R20" s="42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="3:17">
-      <c r="C21" s="77" t="s">
+    <row r="21" spans="2:18">
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="71"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
       <c r="H21" s="71"/>
-      <c r="I21" s="46" t="str">
-        <f>IFERROR(MID(checksheet!check_cell, 5, FIND(J21,checksheet!check_cell)-5-3),"")</f>
+      <c r="I21" s="71"/>
+      <c r="J21" s="46" t="str">
+        <f>IFERROR(MID(checksheet!check_cell, 5, FIND(K21,checksheet!check_cell)-5-3),"")</f>
         <v/>
       </c>
-      <c r="J21" s="69" t="str">
+      <c r="K21" s="69" t="str">
         <f>IF(ISERROR(VALUE(RIGHT(checksheet!check_cell,6))),"",MID(LEFT(checksheet!check_cell, LEN(checksheet!check_cell) - 9),FIND("/", checksheet!check_cell, 5)+2,LEN(checksheet!check_cell)))</f>
         <v/>
       </c>
-      <c r="K21" s="70" t="str">
+      <c r="L21" s="70" t="str">
         <f>IF(ISERROR(VALUE(RIGHT(checksheet!check_cell,6))),"",DATE("20"&amp;LEFT(RIGHT(checksheet!check_cell,6),2),LEFT(RIGHT(checksheet!check_cell,4),2),RIGHT(checksheet!check_cell,2)))</f>
         <v/>
       </c>
-      <c r="L21" s="57" t="str">
+      <c r="M21" s="57" t="str">
         <f ca="1">IF( COUNTBLANK(check_cell_row) + COUNTIF(check_cell_row, "×*") + COUNTIF(check_cell_row, "検証中*") &gt; 0, IF( COUNTIF(check_cell_row, "~&lt; 未実装*") &gt; 0, "一部チェック可", "チェック可"), IF( COUNTIF(check_cell_row, "~&lt; 未実装*") &gt; 0, "チェック不可", IF( COUNTIF(check_cell_row, "○*") &gt; 0, "チェック完了", "-")))</f>
         <v>チェック可</v>
       </c>
-      <c r="N21" s="42">
-        <f t="array" aca="1" ref="N21" ca="1">COUNTIF(check_cell_row,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell_row)="○")*(VALUE(RIGHT(check_cell_row,6))&lt;VALUE(start_date)), 1), 0))</f>
+      <c r="O21" s="42">
+        <f t="array" aca="1" ref="O21" ca="1">COUNTIF(check_cell_row,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell_row)="○")*(VALUE(RIGHT(check_cell_row,6))&lt;VALUE(start_date)), 1), 0))</f>
         <v>1</v>
       </c>
-      <c r="O21" s="42">
-        <f t="array" aca="1" ref="O21" ca="1">SUM(IFERROR(IF((LEFT(check_cell_row)="○") * (VALUE(RIGHT(check_cell_row,6))&gt;=VALUE(start_date)), 1), 0))</f>
+      <c r="P21" s="42">
+        <f t="array" aca="1" ref="P21" ca="1">SUM(IFERROR(IF((LEFT(check_cell_row)="○") * (VALUE(RIGHT(check_cell_row,6))&gt;=VALUE(start_date)), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="P21" s="42">
-        <f t="array" aca="1" ref="P21" ca="1">IF(COUNTIF(check_cell_row,"&lt;&gt;-")=0, 0, E21/COUNTIF(check_cell_row,"&lt;&gt;-"))</f>
+      <c r="Q21" s="42">
+        <f t="array" aca="1" ref="Q21" ca="1">IF(COUNTIF(check_cell_row,"&lt;&gt;-")=0, 0, F21/COUNTIF(check_cell_row,"&lt;&gt;-"))</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="42">
-        <f ca="1">(N21-O21)*P21</f>
+      <c r="R21" s="42">
+        <f ca="1">(O21-P21)*Q21</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="L21">
+  <conditionalFormatting sqref="M21">
     <cfRule type="containsText" dxfId="41" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
-      <formula>NOT(ISERROR(SEARCH("チェック可",L21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("チェック可",M21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="40" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
-      <formula>NOT(ISERROR(SEARCH("チェック完了",L21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("チェック完了",M21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="39" priority="21" stopIfTrue="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH("*-",L21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("*-",M21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="38" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
-      <formula>NOT(ISERROR(SEARCH("チェック不可",L21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("チェック不可",M21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="37" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
-      <formula>NOT(ISERROR(SEARCH("一部チェック可",L21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("一部チェック可",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
+  <conditionalFormatting sqref="D21">
     <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
-      <formula>COUNTIF(C21,"*※※*")</formula>
+      <formula>COUNTIF(D21,"*※※*")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
-      <formula>COUNTIF(C21,"【*】*")</formula>
+      <formula>COUNTIF(D21,"【*】*")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
-      <formula>AND(COUNTIF(C21,"*低優先度*"),$L21&lt;&gt;"-")</formula>
+      <formula>AND(COUNTIF(D21,"*低優先度*"),$M21&lt;&gt;"-")</formula>
     </cfRule>
     <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>COUNTIF($L21,"*チェック可")&gt;0</formula>
+      <formula>IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="-",FALSE,     IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="x",COUNTIF($M21,"*チェック可")&gt;0,         COUNTIF(             OFFSET($M$21,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         ),                         4                     )                 ),                 0,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         )+4,                         4                     )                 ),             ),             "*チェック可"         )&gt;0     ) )</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
-      <formula>$L21="チェック不可"</formula>
+      <formula>$M21="チェック不可"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
       <formula>TRUE</formula>
@@ -4627,64 +4636,64 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:XFD2">
     <cfRule type="expression" priority="51" stopIfTrue="1">
-      <formula>$D$4=$D$5</formula>
+      <formula>$E$4=$E$5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="52" stopIfTrue="1">
-      <formula>COUNTIF($D$12,"*チェック可")&gt;0</formula>
+      <formula>COUNTIF($E$12,"*チェック可")&gt;0</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
-      <formula>$D$12="チェック不可"</formula>
+      <formula>$E$12="チェック不可"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="expression" dxfId="29" priority="71">
+      <formula>AND($G21="",COUNTIFS($E21,"○*")&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="29" priority="71">
-      <formula>AND($F21="",COUNTIFS($D21,"○*")&gt;0)</formula>
+    <cfRule type="expression" dxfId="28" priority="72">
+      <formula>AND($F21="",COUNTIFS($E21,"-*")=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="expression" dxfId="28" priority="72">
-      <formula>AND($E21="",COUNTIFS($D21,"-*")=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
     <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="チェック不可">
-      <formula>NOT(ISERROR(SEARCH("チェック不可",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("チェック不可",E21)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
-      <formula>AND(COUNTIF(D21,"○*"),VALUE(RIGHT(D21,6))&lt; VALUE(start_date))</formula>
+      <formula>AND(COUNTIF(E21,"○*"),VALUE(RIGHT(E21,6))&lt; VALUE(start_date))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="22">
-      <formula>COUNTIF(D21,"*" &amp; check_today)</formula>
+      <formula>COUNTIF(E21,"*" &amp; check_today)</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="24" priority="25" stopIfTrue="1" operator="containsText" text="×*">
-      <formula>NOT(ISERROR(SEARCH("×*",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("×*",E21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="26" stopIfTrue="1" operator="containsText" text="○*">
-      <formula>NOT(ISERROR(SEARCH("○*",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("○*",E21)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="27">
-      <formula>COUNTIF(D21,"*" &amp; tester)</formula>
+      <formula>COUNTIF(E21,"*" &amp; tester)</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
-      <formula>NOT(ISERROR(SEARCH("検証中",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("検証中",E21)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
-      <formula>NOT(ISERROR(SEARCH("*低優先度*",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("*低優先度*",E21)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="49" stopIfTrue="1">
-      <formula>LEFT(D21,1)="-"</formula>
+      <formula>LEFT(E21,1)="-"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
-      <formula>NOT(ISERROR(SEARCH("*未実装*",D21)))</formula>
+      <formula>NOT(ISERROR(SEARCH("*未実装*",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>check_item</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="半角でID（番号）のみをコンマ区切りで記載" sqref="G21" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="※バグについては記載不要（バグに関する情報はBTkへ集約）_x000a_補足した方が望ましいものがあれば記載_x000a_・具体的な数値_x000a_・チェック箇所・回数_x000a_・特殊な確認環境（試作筐体、デバッグ機能使用等）_x000a_等_x000a_" sqref="H21" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:F21" xr:uid="{1E3710D6-158C-47A5-9BB9-9D33863C7C15}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="半角でID（番号）のみをコンマ区切りで記載" sqref="H21" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="※バグについては記載不要（バグに関する情報はBTkへ集約）_x000a_補足した方が望ましいものがあれば記載_x000a_・具体的な数値_x000a_・チェック箇所・回数_x000a_・特殊な確認環境（試作筐体、デバッグ機能使用等）_x000a_等_x000a_" sqref="I21" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F21:G21" xr:uid="{1E3710D6-158C-47A5-9BB9-9D33863C7C15}">
       <formula1>0.25</formula1>
     </dataValidation>
   </dataValidations>
@@ -4731,7 +4740,7 @@
     <row r="6" spans="2:2">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>200618</v>
+        <v>200705</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4813,7 +4822,7 @@
     <row r="28" spans="2:2">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200618</v>
+        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200705</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -4824,13 +4833,13 @@
     <row r="31" spans="2:2">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200618</v>
+        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200705</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200618</v>
+        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200705</v>
       </c>
     </row>
     <row r="33" spans="2:2">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7142E161-3A45-4875-BBAB-05357D764A5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A56F9-8ABA-436F-86F6-B7023BF51E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="315" windowWidth="26190" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -1494,7 +1494,481 @@
     <cellStyle name="標準 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="標準 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4DE86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4DE86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2126,243 +2600,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639725"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4DE86"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3220,60 +3457,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="85" tableBorderDxfId="84">
   <autoFilter ref="B15:T16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="59" totalsRowDxfId="17">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="65">
       <calculatedColumnFormula>INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[$H_ITEM$]))</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="58" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="57" totalsRowDxfId="15" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="56" totalsRowDxfId="14" dataCellStyle="ハイパーリンク">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="82" totalsRowDxfId="64" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="81" totalsRowDxfId="63" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="80" totalsRowDxfId="62" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="13">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="61">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="12">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="60">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="11">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="59">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="58">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="9">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="57">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,(H17+I17)/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="8">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="56">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",H16/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,H17/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="49" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="73" totalsRowDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="54" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="53" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="4" dataCellStyle="ハイパーリンク">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="52" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
       <totalsRowFormula>TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="51" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&gt;0,1-SUBTOTAL(109,テーブル1[残務時間])/テーブル1[[#Totals],[作業時間（計画）]],"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="2" dataCellStyle="ハイパーリンク">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="50" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16="保留","-",IF(テーブル1[作業時間（計画）]&lt;&gt;テーブル1[残務時間], テーブル1[作業時間（実績）]/(テーブル1[作業時間（計画）]-テーブル1[残務時間]),"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&lt;&gt;SUBTOTAL(109,テーブル1[残務時間]), テーブル1[[#Totals],[作業時間（実績）]]/(テーブル1[[#Totals],[作業時間（計画）]]-SUBTOTAL(109,テーブル1[残務時間])),"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="43" totalsRowDxfId="1" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="42" totalsRowDxfId="0" dataCellStyle="ハイパーリンク">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="67" totalsRowDxfId="49" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="66" totalsRowDxfId="48" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3607,7 +3844,7 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3816,7 +4053,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>44017</v>
+        <v>44020</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -4044,12 +4281,12 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C16:L16 N16:T16">
-    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
       <formula>$E16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:K16 N16:T16">
-    <cfRule type="expression" dxfId="74" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="9" stopIfTrue="1">
       <formula>AND($G16=$H16,AND($C16&lt;$D$11,$C16&lt;&gt;"-"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4068,49 +4305,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17">
-    <cfRule type="timePeriod" dxfId="73" priority="8" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="97" priority="8" timePeriod="today">
       <formula>FLOOR(C16,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I17">
-    <cfRule type="cellIs" dxfId="72" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="71" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="10" stopIfTrue="1" operator="equal">
       <formula>"チェック完了"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="equal">
       <formula>"チェック不可"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="18" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J17">
-    <cfRule type="cellIs" dxfId="68" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I17">
-    <cfRule type="expression" dxfId="67" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="41" stopIfTrue="1">
       <formula>$H16=$G16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="66" priority="6" stopIfTrue="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="90" priority="6" stopIfTrue="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
+    <cfRule type="containsText" dxfId="89" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
       <formula>NOT(ISERROR(SEARCH("遅延",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R17">
-    <cfRule type="cellIs" dxfId="64" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4184,11 +4421,11 @@
   </sheetPr>
   <dimension ref="B1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="20" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -4598,92 +4835,92 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="41" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
+    <cfRule type="containsText" dxfId="47" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
       <formula>NOT(ISERROR(SEARCH("チェック可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
+    <cfRule type="containsText" dxfId="46" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
       <formula>NOT(ISERROR(SEARCH("チェック完了",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="21" stopIfTrue="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="21" stopIfTrue="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH("*-",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="44" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
+    <cfRule type="containsText" dxfId="43" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
       <formula>NOT(ISERROR(SEARCH("一部チェック可",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
       <formula>COUNTIF(D21,"*※※*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
       <formula>COUNTIF(D21,"【*】*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
       <formula>AND(COUNTIF(D21,"*低優先度*"),$M21&lt;&gt;"-")</formula>
     </cfRule>
-    <cfRule type="expression" priority="7" stopIfTrue="1">
-      <formula>IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="-",FALSE,     IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="x",COUNTIF($M21,"*チェック可")&gt;0,         COUNTIF(             OFFSET($M$21,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         ),                         4                     )                 ),                 0,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         )+4,                         4                     )                 ),             ),             "*チェック可"         )&gt;0     ) )</formula>
+    <cfRule type="expression" priority="10" stopIfTrue="1">
+      <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
       <formula>$M21="チェック不可"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="10" stopIfTrue="1">
-      <formula>TRUE</formula>
+    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+      <formula>IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="-",FALSE,     IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="x",COUNTIF($M21,"*チェック可")=0,         COUNTIF(             OFFSET($M$21,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         ),                         4                     )                 ),                 0,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         )+4,                         4                     )                 ),             ),             "*チェック可"         )=0     ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:XFD2">
     <cfRule type="expression" priority="51" stopIfTrue="1">
       <formula>$E$4=$E$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="52" stopIfTrue="1">
       <formula>COUNTIF($E$12,"*チェック可")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="54" stopIfTrue="1">
       <formula>$E$12="チェック不可"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="29" priority="71">
+    <cfRule type="expression" dxfId="40" priority="71">
       <formula>AND($G21="",COUNTIFS($E21,"○*")&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="28" priority="72">
+    <cfRule type="expression" dxfId="39" priority="72">
       <formula>AND($F21="",COUNTIFS($E21,"-*")=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="19" stopIfTrue="1">
       <formula>AND(COUNTIF(E21,"○*"),VALUE(RIGHT(E21,6))&lt; VALUE(start_date))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="36" priority="22">
       <formula>COUNTIF(E21,"*" &amp; check_today)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="25" stopIfTrue="1" operator="containsText" text="×*">
+    <cfRule type="containsText" dxfId="35" priority="25" stopIfTrue="1" operator="containsText" text="×*">
       <formula>NOT(ISERROR(SEARCH("×*",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="26" stopIfTrue="1" operator="containsText" text="○*">
+    <cfRule type="containsText" dxfId="34" priority="26" stopIfTrue="1" operator="containsText" text="○*">
       <formula>NOT(ISERROR(SEARCH("○*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="33" priority="27">
       <formula>COUNTIF(E21,"*" &amp; tester)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
+    <cfRule type="containsText" dxfId="32" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
       <formula>NOT(ISERROR(SEARCH("検証中",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
+    <cfRule type="containsText" dxfId="31" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
       <formula>NOT(ISERROR(SEARCH("*低優先度*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="49" stopIfTrue="1">
       <formula>LEFT(E21,1)="-"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
+    <cfRule type="containsText" dxfId="29" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
       <formula>NOT(ISERROR(SEARCH("*未実装*",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4740,7 +4977,7 @@
     <row r="6" spans="2:2">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>200705</v>
+        <v>200708</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4822,7 +5059,7 @@
     <row r="28" spans="2:2">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200705</v>
+        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200708</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -4833,13 +5070,13 @@
     <row r="31" spans="2:2">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200705</v>
+        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200708</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200705</v>
+        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200708</v>
       </c>
     </row>
     <row r="33" spans="2:2">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakajima_Shinsuke\Documents\work\cltools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A56F9-8ABA-436F-86F6-B7023BF51E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A77C0E-3A0E-4F5B-AF48-780E17AC9F51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="start_date" comment="開始判定用">管理!$B$9</definedName>
     <definedName name="tester" comment="条件付き書式で参照する用">管理!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -56,7 +56,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>メインが存在しない場合は - としてください</t>
+          <t>メイン、ステーションのどちらかしか存在しない場合は空欄にしてください</t>
         </r>
       </text>
     </comment>
@@ -1494,481 +1494,7 @@
     <cellStyle name="標準 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="標準 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639725"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4DE86"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639725"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4DE86"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="75">
     <dxf>
       <font>
         <b val="0"/>
@@ -2600,6 +2126,233 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4DE86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3457,60 +3210,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="60" tableBorderDxfId="59">
   <autoFilter ref="B15:T16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="65">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="17">
       <calculatedColumnFormula>INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[$H_ITEM$]))</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="82" totalsRowDxfId="64" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="81" totalsRowDxfId="63" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="80" totalsRowDxfId="62" dataCellStyle="ハイパーリンク">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="57" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="56" totalsRowDxfId="15" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="55" totalsRowDxfId="14" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="61">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="13">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="60">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="12">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="77" totalsRowDxfId="59">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="11">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="58">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="10">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="57">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,(H17+I17)/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="56">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",H16/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,H17/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="73" totalsRowDxfId="55"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="54" dataCellStyle="ハイパーリンク">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="48" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="53" dataCellStyle="ハイパーリンク">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="52" dataCellStyle="ハイパーリンク">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="4" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
       <totalsRowFormula>TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="51" dataCellStyle="ハイパーリンク">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&gt;0,1-SUBTOTAL(109,テーブル1[残務時間])/テーブル1[[#Totals],[作業時間（計画）]],"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="50" dataCellStyle="ハイパーリンク">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="2" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16="保留","-",IF(テーブル1[作業時間（計画）]&lt;&gt;テーブル1[残務時間], テーブル1[作業時間（実績）]/(テーブル1[作業時間（計画）]-テーブル1[残務時間]),"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&lt;&gt;SUBTOTAL(109,テーブル1[残務時間]), テーブル1[[#Totals],[作業時間（実績）]]/(テーブル1[[#Totals],[作業時間（計画）]]-SUBTOTAL(109,テーブル1[残務時間])),"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="67" totalsRowDxfId="49" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="66" totalsRowDxfId="48" dataCellStyle="ハイパーリンク">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="42" totalsRowDxfId="1" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="41" totalsRowDxfId="0" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3844,7 +3597,7 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4053,7 +3806,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>44020</v>
+        <v>44081</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -4281,12 +4034,12 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C16:L16 N16:T16">
-    <cfRule type="expression" dxfId="99" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="1" stopIfTrue="1">
       <formula>$E16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:K16 N16:T16">
-    <cfRule type="expression" dxfId="98" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="9" stopIfTrue="1">
       <formula>AND($G16=$H16,AND($C16&lt;$D$11,$C16&lt;&gt;"-"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4305,49 +4058,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17">
-    <cfRule type="timePeriod" dxfId="97" priority="8" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="72" priority="8" timePeriod="today">
       <formula>FLOOR(C16,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I17">
-    <cfRule type="cellIs" dxfId="96" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="95" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="10" stopIfTrue="1" operator="equal">
       <formula>"チェック完了"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="11" stopIfTrue="1" operator="equal">
       <formula>"チェック不可"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="18" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J17">
-    <cfRule type="cellIs" dxfId="92" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I17">
-    <cfRule type="expression" dxfId="91" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="41" stopIfTrue="1">
       <formula>$H16=$G16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="90" priority="6" stopIfTrue="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="65" priority="6" stopIfTrue="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
+    <cfRule type="containsText" dxfId="64" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
       <formula>NOT(ISERROR(SEARCH("遅延",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R17">
-    <cfRule type="cellIs" dxfId="88" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4421,7 +4174,7 @@
   </sheetPr>
   <dimension ref="B1:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="20" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
@@ -4835,92 +4588,89 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="47" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
+    <cfRule type="containsText" dxfId="40" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
       <formula>NOT(ISERROR(SEARCH("チェック可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
+    <cfRule type="containsText" dxfId="39" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
       <formula>NOT(ISERROR(SEARCH("チェック完了",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="21" stopIfTrue="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="21" stopIfTrue="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH("*-",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="37" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
+    <cfRule type="containsText" dxfId="36" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
       <formula>NOT(ISERROR(SEARCH("一部チェック可",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>COUNTIF(D21,"*※※*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>COUNTIF(D21,"【*】*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
       <formula>AND(COUNTIF(D21,"*低優先度*"),$M21&lt;&gt;"-")</formula>
     </cfRule>
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="3" stopIfTrue="1">
-      <formula>$M21="チェック不可"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
-      <formula>IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="-",FALSE,     IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="x",COUNTIF($M21,"*チェック可")=0,         COUNTIF(             OFFSET($M$21,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         ),                         4                     )                 ),                 0,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         )+4,                         4                     )                 ),             ),             "*チェック可"         )=0     ) )</formula>
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+      <formula>IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="-",FALSE,     IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="x",COUNTIF($M21,"*チェック*可")=0,         COUNTIF(             OFFSET($M$21,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         ),                         4                     )                 ),                 0,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         )+4,                         4                     )                 ),             ),             "*チェック*可"         )=0     ) )</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:XFD2">
     <cfRule type="expression" priority="51" stopIfTrue="1">
       <formula>$E$4=$E$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="52" stopIfTrue="1">
       <formula>COUNTIF($E$12,"*チェック可")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
       <formula>$E$12="チェック不可"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="40" priority="71">
+    <cfRule type="expression" dxfId="29" priority="71">
       <formula>AND($G21="",COUNTIFS($E21,"○*")&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="39" priority="72">
+    <cfRule type="expression" dxfId="28" priority="72">
       <formula>AND($F21="",COUNTIFS($E21,"-*")=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>AND(COUNTIF(E21,"○*"),VALUE(RIGHT(E21,6))&lt; VALUE(start_date))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="22">
+    <cfRule type="expression" dxfId="25" priority="22">
       <formula>COUNTIF(E21,"*" &amp; check_today)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="25" stopIfTrue="1" operator="containsText" text="×*">
+    <cfRule type="containsText" dxfId="24" priority="25" stopIfTrue="1" operator="containsText" text="×*">
       <formula>NOT(ISERROR(SEARCH("×*",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="26" stopIfTrue="1" operator="containsText" text="○*">
+    <cfRule type="containsText" dxfId="23" priority="26" stopIfTrue="1" operator="containsText" text="○*">
       <formula>NOT(ISERROR(SEARCH("○*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="22" priority="27">
       <formula>COUNTIF(E21,"*" &amp; tester)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
+    <cfRule type="containsText" dxfId="21" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
       <formula>NOT(ISERROR(SEARCH("検証中",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
+    <cfRule type="containsText" dxfId="20" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
       <formula>NOT(ISERROR(SEARCH("*低優先度*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="49" stopIfTrue="1">
       <formula>LEFT(E21,1)="-"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
+    <cfRule type="containsText" dxfId="18" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
       <formula>NOT(ISERROR(SEARCH("*未実装*",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4947,7 +4697,7 @@
   <dimension ref="B2:B37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4977,7 +4727,7 @@
     <row r="6" spans="2:2">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>200708</v>
+        <v>200907</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -5059,7 +4809,7 @@
     <row r="28" spans="2:2">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200708</v>
+        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200907</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -5070,13 +4820,13 @@
     <row r="31" spans="2:2">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200708</v>
+        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200907</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200708</v>
+        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200907</v>
       </c>
     </row>
     <row r="33" spans="2:2">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakajima_Shinsuke\Documents\work\cltools\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A77C0E-3A0E-4F5B-AF48-780E17AC9F51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F236C4AF-E05C-4B8D-AEFF-F406A7A279C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -27,15 +27,7 @@
     <definedName name="start_date" comment="開始判定用">管理!$B$9</definedName>
     <definedName name="tester" comment="条件付き書式で参照する用">管理!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -279,14 +271,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$AUTHOR$</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$TITLE$</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>BTk ID</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -313,19 +297,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$H_ITEM$</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>[UL]</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$_VERSION_STATION$</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$_CONFIRMOR$</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -346,10 +318,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$START_DATE$</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>集計</t>
   </si>
   <si>
@@ -357,14 +325,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$_VERSION_MAIN$</t>
-  </si>
-  <si>
     <t>バージョン</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>$VERSION$</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -635,10 +596,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>$_TESTER$</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Rev</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -670,6 +627,42 @@
   </si>
   <si>
     <t>#comment</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{TITLE}}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{VERSION}}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{_VERSION_MAIN}}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{H_ITEM}}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{_TESTER}}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{START_DATE}}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{_VERSION_STATION}}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{AUTHOR}}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{{_CONFIRMOR}}</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3215,25 +3208,25 @@
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="17">
-      <calculatedColumnFormula>INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[$H_ITEM$]))</calculatedColumnFormula>
+      <calculatedColumnFormula>INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[{{H_ITEM}}]))</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="$H_ITEM$" dataDxfId="57" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="{{H_ITEM}}" dataDxfId="57" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="56" totalsRowDxfId="15" dataCellStyle="ハイパーリンク"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="55" totalsRowDxfId="14" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="13">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="12">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="11">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="10">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[$H_ITEM$])))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
@@ -3245,13 +3238,13 @@
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="48" totalsRowDxfId="7"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="4" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[$H_ITEM$]))/1440)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
       <totalsRowFormula>TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</totalsRowFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
@@ -3625,7 +3618,7 @@
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="18.75">
       <c r="C1" s="58" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3646,7 +3639,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3676,10 +3669,10 @@
     <row r="5" spans="1:20" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:20" ht="13.5" customHeight="1">
       <c r="C6" s="14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47"/>
@@ -3697,10 +3690,10 @@
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1">
       <c r="C7" s="55" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E7" s="47"/>
       <c r="F7" s="47"/>
@@ -3718,10 +3711,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="C8" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E8" s="47"/>
       <c r="F8" s="47"/>
@@ -3742,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E9" s="47"/>
       <c r="F9" s="47"/>
@@ -3763,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="75" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="E10" s="47"/>
       <c r="F10" s="47"/>
@@ -3781,10 +3774,10 @@
     </row>
     <row r="11" spans="1:20">
       <c r="C11" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E11" s="47"/>
       <c r="F11" s="47"/>
@@ -3806,7 +3799,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>44081</v>
+        <v>44160</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -3827,7 +3820,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
@@ -3846,19 +3839,19 @@
     <row r="14" spans="1:20" ht="14.25" thickBot="1"/>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="14.25" thickBot="1">
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G15" s="23" t="s">
         <v>5</v>
@@ -3873,34 +3866,34 @@
         <v>8</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L15" s="26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O15" s="62" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P15" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" s="62" t="s">
-        <v>60</v>
-      </c>
       <c r="R15" s="62" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S15" s="62" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3908,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="27" t="str">
-        <f ca="1">INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[$H_ITEM$]))</f>
+        <f ca="1">INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[{{H_ITEM}}]))</f>
         <v>-</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -3916,23 +3909,23 @@
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="48" t="str">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[$H_ITEM$])))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>チェック可</v>
       </c>
       <c r="G16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[$H_ITEM$])))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>1</v>
       </c>
       <c r="H16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[$H_ITEM$])))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>0</v>
       </c>
       <c r="I16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[$H_ITEM$])))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>0</v>
       </c>
       <c r="J16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[$H_ITEM$])))</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>1</v>
       </c>
       <c r="K16" s="29">
@@ -3945,15 +3938,15 @@
       </c>
       <c r="M16" s="74"/>
       <c r="N16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[$H_ITEM$]))/1440)</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
       <c r="O16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[$H_ITEM$]))/1440)</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
       <c r="P16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[$H_ITEM$]))/1440)</f>
+        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="66" t="str">
@@ -3972,7 +3965,7 @@
     </row>
     <row r="17" spans="2:20" s="12" customFormat="1" ht="14.25" thickBot="1">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C17" s="61" t="str">
         <f ca="1">IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</f>
@@ -4203,19 +4196,19 @@
   <sheetData>
     <row r="1" spans="2:15" hidden="1">
       <c r="E1" s="42" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="35" customFormat="1" ht="18.75">
@@ -4313,7 +4306,7 @@
     </row>
     <row r="8" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D8" s="41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="38">
         <f t="array" aca="1" ref="E8" ca="1">SUM(OFFSET(O21,0, 0, ROWS(check_cell),1)*OFFSET(Q21,0, 0, ROWS(check_cell),1))</f>
@@ -4332,7 +4325,7 @@
     </row>
     <row r="9" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D9" s="41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="38">
         <f ca="1">SUM(OFFSET(G21,0, 0, ROWS(check_cell),1))</f>
@@ -4351,7 +4344,7 @@
     </row>
     <row r="10" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D10" s="41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E10" s="38">
         <f ca="1">COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "チェック可")</f>
@@ -4370,7 +4363,7 @@
     </row>
     <row r="11" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D11" s="41" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E11" s="38">
         <f ca="1">COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "*チェック*可")</f>
@@ -4389,7 +4382,7 @@
     </row>
     <row r="12" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D12" s="41" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E12" s="38" t="str">
         <f ca="1">IF(E11=0, "チェック完了", IF(E10=E11, "チェック可", IF(E10+COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "一部チェック可")=0, "チェック不可", "一部チェック可")))</f>
@@ -4427,7 +4420,7 @@
     </row>
     <row r="14" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
       <c r="D14" s="41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E14" s="38">
         <f t="array" aca="1" ref="E14" ca="1">SUM(OFFSET(R21,0, 0, ROWS(check_cell),1))</f>
@@ -4504,47 +4497,47 @@
         <v>17</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I20" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L20" s="44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M20" s="44" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O20" s="42" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P20" s="42" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="42" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="78"/>
       <c r="C21" s="78"/>
       <c r="D21" s="77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="76"/>
       <c r="F21" s="71"/>
@@ -4710,13 +4703,13 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="33" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="33" t="str">
         <f>index!D13</f>
-        <v>$_TESTER$</v>
+        <v>{{_TESTER}}</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -4727,12 +4720,12 @@
     <row r="6" spans="2:2">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>200907</v>
+        <v>201125</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:2">
@@ -4743,18 +4736,18 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="33" t="str">
         <f>"- 対象外（" &amp; index!D6 &amp;"） -"</f>
-        <v>- 対象外（$VERSION$） -</v>
+        <v>- 対象外（{{VERSION}}） -</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -4765,51 +4758,51 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="33" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="33" t="str">
         <f>"検証中 / " &amp; index!D13</f>
-        <v>検証中 / $_TESTER$</v>
+        <v>検証中 / {{_TESTER}}</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="33" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="33" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="33" t="str">
         <f>"MN:(" &amp; index!D7 &amp;"), STA:(" &amp;  index!D8  &amp; ")"</f>
-        <v>MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$)</v>
+        <v>MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}})</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="33" t="str">
         <f>IF( index!D7="",  index!D8, B24)</f>
-        <v>MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$)</v>
+        <v>MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}})</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="33" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200907</v>
+        <v xml:space="preserve"> / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201125</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -4820,19 +4813,19 @@
     <row r="31" spans="2:2">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200907</v>
+        <v>○ / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201125</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:($_VERSION_MAIN$), STA:($_VERSION_STATION$) / $_TESTER$ / 200907</v>
+        <v>× / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201125</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="33" t="str">
         <f>B18</f>
-        <v>検証中 / $_TESTER$</v>
+        <v>検証中 / {{_TESTER}}</v>
       </c>
     </row>
     <row r="34" spans="2:2">
@@ -4844,7 +4837,7 @@
     <row r="35" spans="2:2">
       <c r="B35" s="33" t="str">
         <f>B12</f>
-        <v>- 対象外（$VERSION$） -</v>
+        <v>- 対象外（{{VERSION}}） -</v>
       </c>
     </row>
     <row r="36" spans="2:2">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F236C4AF-E05C-4B8D-AEFF-F406A7A279C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8427993-216D-4E1F-A6ED-D526A01A3C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,11 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>メイン、ステーションのどちらかしか存在しない場合は空欄にしてください</t>
+          <t xml:space="preserve">メイン＋ステーション構成でない場合は
+STATION欄にのみ記入し、
+MAIN欄は空欄（逆でも可）
+にしてください
+</t>
         </r>
       </text>
     </comment>
@@ -1490,6 +1494,233 @@
   <dxfs count="75">
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4DE86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1541,28 +1772,31 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1584,7 +1818,6 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1624,7 +1857,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1632,17 +1865,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1664,6 +1899,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1703,7 +1939,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1711,17 +1947,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1743,7 +1981,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1760,6 +1998,296 @@
         </right>
         <top/>
         <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1799,6 +2327,39 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1843,8 +2404,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1855,9 +2414,11 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
       </border>
     </dxf>
@@ -1879,6 +2440,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1890,6 +2452,40 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1937,21 +2533,23 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1987,6 +2585,167 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2038,6 +2797,45 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="none"/>
@@ -2062,6 +2860,45 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2103,794 +2940,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639725"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4DE86"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2915,67 +2964,22 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color auto="1"/>
+        <top style="thin">
+          <color indexed="64"/>
         </top>
         <bottom style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
       </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -3207,56 +3211,56 @@
   <autoFilter ref="B15:T16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="17">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[{{H_ITEM}}]))</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="{{H_ITEM}}" dataDxfId="57" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="56" totalsRowDxfId="15" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="55" totalsRowDxfId="14" dataCellStyle="ハイパーリンク">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="{{H_ITEM}}" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="13">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="12">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="11">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="9">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,(H17+I17)/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="8">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",H16/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,H17/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="48" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="4" dataCellStyle="ハイパーリンク">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
       <totalsRowFormula>TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&gt;0,1-SUBTOTAL(109,テーブル1[残務時間])/テーブル1[[#Totals],[作業時間（計画）]],"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="2" dataCellStyle="ハイパーリンク">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16="保留","-",IF(テーブル1[作業時間（計画）]&lt;&gt;テーブル1[残務時間], テーブル1[作業時間（実績）]/(テーブル1[作業時間（計画）]-テーブル1[残務時間]),"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&lt;&gt;SUBTOTAL(109,テーブル1[残務時間]), テーブル1[[#Totals],[作業時間（実績）]]/(テーブル1[[#Totals],[作業時間（計画）]]-SUBTOTAL(109,テーブル1[残務時間])),"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="42" totalsRowDxfId="1" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="41" totalsRowDxfId="0" dataCellStyle="ハイパーリンク">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3799,7 +3803,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>44160</v>
+        <v>44161</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -4581,36 +4585,36 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="40" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
+    <cfRule type="containsText" dxfId="22" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
       <formula>NOT(ISERROR(SEARCH("チェック可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
+    <cfRule type="containsText" dxfId="21" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
       <formula>NOT(ISERROR(SEARCH("チェック完了",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="21" stopIfTrue="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="21" stopIfTrue="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH("*-",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="19" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
+    <cfRule type="containsText" dxfId="18" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
       <formula>NOT(ISERROR(SEARCH("一部チェック可",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>COUNTIF(D21,"*※※*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>COUNTIF(D21,"【*】*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
       <formula>AND(COUNTIF(D21,"*低優先度*"),$M21&lt;&gt;"-")</formula>
     </cfRule>
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="-",FALSE,     IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="x",COUNTIF($M21,"*チェック*可")=0,         COUNTIF(             OFFSET($M$21,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         ),                         4                     )                 ),                 0,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         )+4,                         4                     )                 ),             ),             "*チェック*可"         )=0     ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4618,52 +4622,52 @@
     <cfRule type="expression" priority="51" stopIfTrue="1">
       <formula>$E$4=$E$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="52" stopIfTrue="1">
       <formula>COUNTIF($E$12,"*チェック可")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="54" stopIfTrue="1">
       <formula>$E$12="チェック不可"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="29" priority="71">
+    <cfRule type="expression" dxfId="11" priority="71">
       <formula>AND($G21="",COUNTIFS($E21,"○*")&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="28" priority="72">
+    <cfRule type="expression" dxfId="10" priority="72">
       <formula>AND($F21="",COUNTIFS($E21,"-*")=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="19" stopIfTrue="1">
       <formula>AND(COUNTIF(E21,"○*"),VALUE(RIGHT(E21,6))&lt; VALUE(start_date))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="22">
+    <cfRule type="expression" dxfId="7" priority="22">
       <formula>COUNTIF(E21,"*" &amp; check_today)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="25" stopIfTrue="1" operator="containsText" text="×*">
+    <cfRule type="containsText" dxfId="6" priority="25" stopIfTrue="1" operator="containsText" text="×*">
       <formula>NOT(ISERROR(SEARCH("×*",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="26" stopIfTrue="1" operator="containsText" text="○*">
+    <cfRule type="containsText" dxfId="5" priority="26" stopIfTrue="1" operator="containsText" text="○*">
       <formula>NOT(ISERROR(SEARCH("○*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="27">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>COUNTIF(E21,"*" &amp; tester)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
+    <cfRule type="containsText" dxfId="3" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
       <formula>NOT(ISERROR(SEARCH("検証中",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
+    <cfRule type="containsText" dxfId="2" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
       <formula>NOT(ISERROR(SEARCH("*低優先度*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="49" stopIfTrue="1">
       <formula>LEFT(E21,1)="-"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
+    <cfRule type="containsText" dxfId="0" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
       <formula>NOT(ISERROR(SEARCH("*未実装*",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4720,7 +4724,7 @@
     <row r="6" spans="2:2">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>201125</v>
+        <v>201126</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4790,7 +4794,7 @@
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="33" t="str">
-        <f>IF( index!D7="",  index!D8, B24)</f>
+        <f>IF( index!D7="",  index!D8, IF(index!D8="", index!D7, B24))</f>
         <v>MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}})</v>
       </c>
     </row>
@@ -4802,7 +4806,7 @@
     <row r="28" spans="2:2">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201125</v>
+        <v xml:space="preserve"> / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201126</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -4813,13 +4817,13 @@
     <row r="31" spans="2:2">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201125</v>
+        <v>○ / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201126</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201125</v>
+        <v>× / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201126</v>
       </c>
     </row>
     <row r="33" spans="2:2">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Documents\tmp\cl\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakajima_Shinsuke\Documents\work\checklists\cltools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8427993-216D-4E1F-A6ED-D526A01A3C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765ECF13-3814-4911-93B0-549BFC73ED24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,17 @@
     <definedName name="start_date" comment="開始判定用">管理!$B$9</definedName>
     <definedName name="tester" comment="条件付き書式で参照する用">管理!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1491,234 +1501,7 @@
     <cellStyle name="標準 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="標準 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF639725"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFB4DE86"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="89">
     <dxf>
       <font>
         <b val="0"/>
@@ -1772,31 +1555,28 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
+        <top/>
         <bottom style="medium">
-          <color auto="1"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1818,6 +1598,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1857,7 +1638,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1865,19 +1646,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1899,7 +1678,6 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1939,7 +1717,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1947,19 +1725,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1981,7 +1757,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2002,6 +1778,226 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2021,7 +2017,6 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2029,19 +2024,17 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -2093,23 +2086,583 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF639725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4DE86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
         <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2117,11 +2670,11 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
+        <top style="medium">
+          <color auto="1"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+        <bottom style="medium">
+          <color auto="1"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -2146,7 +2699,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2154,17 +2707,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -2186,7 +2741,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2198,9 +2753,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2230,7 +2783,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2238,246 +2791,11 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="[h]:mm"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2487,262 +2805,7 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2762,6 +2825,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2769,56 +2833,21 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom style="medium">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -2840,6 +2869,7 @@
         <charset val="128"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2847,6 +2877,49 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="[h]:mm"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2854,12 +2927,245 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom style="medium">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2898,7 +3204,7 @@
           <color auto="1"/>
         </bottom>
       </border>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2909,13 +3215,11 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="10"/>
+        <color auto="1"/>
         <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2924,7 +3228,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2932,12 +3236,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color auto="1"/>
         </bottom>
       </border>
-      <protection locked="1" hidden="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2962,24 +3268,6 @@
         </bottom>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -3041,145 +3329,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3207,61 +3356,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="88" tableBorderDxfId="87">
   <autoFilter ref="B15:T16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="17">
       <calculatedColumnFormula>INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[{{H_ITEM}}]))</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="{{H_ITEM}}" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="ハイパーリンク">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="{{H_ITEM}}" dataDxfId="85" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="84" totalsRowDxfId="15" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="83" totalsRowDxfId="14" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="13">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="12">
+      <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="45">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="11">
+      <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="43">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="10">
+      <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41">
-      <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="9">
+      <calculatedColumnFormula>IF(OR($F16="-",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,(H17+I17)/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
-      <calculatedColumnFormula>IF(OR($E16&lt;&gt;"",G16=0),"-",H16/G16)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="8">
+      <calculatedColumnFormula>IF(OR($F16="-",G16=0),"-",H16/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,H17/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="76" totalsRowDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="4" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
       <totalsRowFormula>TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($F16="-","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&gt;0,1-SUBTOTAL(109,テーブル1[残務時間])/テーブル1[[#Totals],[作業時間（計画）]],"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="ハイパーリンク">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="2" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16="保留","-",IF(テーブル1[作業時間（計画）]&lt;&gt;テーブル1[残務時間], テーブル1[作業時間（実績）]/(テーブル1[作業時間（計画）]-テーブル1[残務時間]),"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&lt;&gt;SUBTOTAL(109,テーブル1[残務時間]), テーブル1[[#Totals],[作業時間（実績）]]/(テーブル1[[#Totals],[作業時間（計画）]]-SUBTOTAL(109,テーブル1[残務時間])),"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="24" totalsRowDxfId="23" dataCellStyle="ハイパーリンク">
-      <calculatedColumnFormula>IF($E16&lt;&gt;"","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="70" totalsRowDxfId="1" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="69" totalsRowDxfId="0" dataCellStyle="ハイパーリンク">
+      <calculatedColumnFormula>IF($F16="-","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3803,7 +3952,7 @@
       </c>
       <c r="D12" s="50">
         <f ca="1">TODAY()</f>
-        <v>44161</v>
+        <v>44239</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="47"/>
@@ -3921,40 +4070,40 @@
         <v>1</v>
       </c>
       <c r="H16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
+        <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>0</v>
       </c>
       <c r="I16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
+        <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>0</v>
       </c>
       <c r="J16" s="28">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
+        <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>1</v>
       </c>
       <c r="K16" s="29">
-        <f ca="1">IF(OR($E16&lt;&gt;"",G16=0),"-",(H16+I16)/G16)</f>
+        <f ca="1">IF(OR($F16="-",G16=0),"-",(H16+I16)/G16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="29">
-        <f ca="1">IF(OR($E16&lt;&gt;"",G16=0),"-",H16/G16)</f>
+        <f ca="1">IF(OR($F16="-",G16=0),"-",H16/G16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="74"/>
       <c r="N16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
+        <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
       <c r="O16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
+        <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
       <c r="P16" s="65">
-        <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
+        <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="66" t="str">
-        <f ca="1">IF($E16&lt;&gt;"","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</f>
+        <f ca="1">IF($F16="-","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</f>
         <v>-</v>
       </c>
       <c r="R16" s="66" t="str">
@@ -3963,7 +4112,7 @@
       </c>
       <c r="S16" s="63"/>
       <c r="T16" s="68" t="str">
-        <f ca="1">IF($E16&lt;&gt;"","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</f>
+        <f ca="1">IF($F16="-","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</f>
         <v/>
       </c>
     </row>
@@ -4031,12 +4180,12 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C16:L16 N16:T16">
-    <cfRule type="expression" dxfId="74" priority="1" stopIfTrue="1">
-      <formula>$E16&lt;&gt;""</formula>
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+      <formula>$F16="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:K16 N16:T16">
-    <cfRule type="expression" dxfId="73" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
       <formula>AND($G16=$H16,AND($C16&lt;$D$11,$C16&lt;&gt;"-"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4055,49 +4204,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17">
-    <cfRule type="timePeriod" dxfId="72" priority="8" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="44" priority="8" timePeriod="today">
       <formula>FLOOR(C16,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I17">
-    <cfRule type="cellIs" dxfId="71" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="70" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="10" stopIfTrue="1" operator="equal">
       <formula>"チェック完了"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" stopIfTrue="1" operator="equal">
       <formula>"チェック不可"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="18" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J17">
-    <cfRule type="cellIs" dxfId="67" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I17">
-    <cfRule type="expression" dxfId="66" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
       <formula>$H16=$G16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="65" priority="6" stopIfTrue="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="37" priority="6" stopIfTrue="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
+    <cfRule type="containsText" dxfId="36" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
       <formula>NOT(ISERROR(SEARCH("遅延",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R17">
-    <cfRule type="cellIs" dxfId="63" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4175,7 +4324,7 @@
       <pane xSplit="4" ySplit="20" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -4389,7 +4538,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="38" t="str">
-        <f ca="1">IF(E11=0, "チェック完了", IF(E10=E11, "チェック可", IF(E10+COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "一部チェック可")=0, "チェック不可", "一部チェック可")))</f>
+        <f ca="1">IF(E4=0,"-", IF(E11=0, "チェック完了", IF(E10=E11, "チェック可", IF(E10+COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "一部チェック可")=0, "チェック不可", "一部チェック可"))))</f>
         <v>チェック可</v>
       </c>
       <c r="F12" s="38"/>
@@ -4585,36 +4734,36 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="22" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
+    <cfRule type="containsText" dxfId="68" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
       <formula>NOT(ISERROR(SEARCH("チェック可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
+    <cfRule type="containsText" dxfId="67" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
       <formula>NOT(ISERROR(SEARCH("チェック完了",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="21" stopIfTrue="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="21" stopIfTrue="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH("*-",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="65" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
+    <cfRule type="containsText" dxfId="64" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
       <formula>NOT(ISERROR(SEARCH("一部チェック可",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="1" stopIfTrue="1">
       <formula>COUNTIF(D21,"*※※*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="2" stopIfTrue="1">
       <formula>COUNTIF(D21,"【*】*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="8" stopIfTrue="1">
       <formula>AND(COUNTIF(D21,"*低優先度*"),$M21&lt;&gt;"-")</formula>
     </cfRule>
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="7" stopIfTrue="1">
       <formula>IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="-",FALSE,     IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="x",COUNTIF($M21,"*チェック*可")=0,         COUNTIF(             OFFSET($M$21,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         ),                         4                     )                 ),                 0,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         )+4,                         4                     )                 ),             ),             "*チェック*可"         )=0     ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4622,52 +4771,52 @@
     <cfRule type="expression" priority="51" stopIfTrue="1">
       <formula>$E$4=$E$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="52" stopIfTrue="1">
       <formula>COUNTIF($E$12,"*チェック可")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>$E$12="チェック不可"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="11" priority="71">
+    <cfRule type="expression" dxfId="57" priority="71">
       <formula>AND($G21="",COUNTIFS($E21,"○*")&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="10" priority="72">
+    <cfRule type="expression" dxfId="56" priority="72">
       <formula>AND($F21="",COUNTIFS($E21,"-*")=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
       <formula>AND(COUNTIF(E21,"○*"),VALUE(RIGHT(E21,6))&lt; VALUE(start_date))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="22">
+    <cfRule type="expression" dxfId="53" priority="22">
       <formula>COUNTIF(E21,"*" &amp; check_today)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="25" stopIfTrue="1" operator="containsText" text="×*">
+    <cfRule type="containsText" dxfId="52" priority="25" stopIfTrue="1" operator="containsText" text="×*">
       <formula>NOT(ISERROR(SEARCH("×*",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="26" stopIfTrue="1" operator="containsText" text="○*">
+    <cfRule type="containsText" dxfId="51" priority="26" stopIfTrue="1" operator="containsText" text="○*">
       <formula>NOT(ISERROR(SEARCH("○*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="27">
+    <cfRule type="expression" dxfId="50" priority="27">
       <formula>COUNTIF(E21,"*" &amp; tester)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
+    <cfRule type="containsText" dxfId="49" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
       <formula>NOT(ISERROR(SEARCH("検証中",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
+    <cfRule type="containsText" dxfId="48" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
       <formula>NOT(ISERROR(SEARCH("*低優先度*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
       <formula>LEFT(E21,1)="-"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
+    <cfRule type="containsText" dxfId="46" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
       <formula>NOT(ISERROR(SEARCH("*未実装*",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4724,7 +4873,7 @@
     <row r="6" spans="2:2">
       <c r="B6" s="51" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>201126</v>
+        <v>210212</v>
       </c>
     </row>
     <row r="8" spans="2:2">
@@ -4806,7 +4955,7 @@
     <row r="28" spans="2:2">
       <c r="B28" s="33" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201126</v>
+        <v xml:space="preserve"> / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210212</v>
       </c>
     </row>
     <row r="30" spans="2:2">
@@ -4817,13 +4966,13 @@
     <row r="31" spans="2:2">
       <c r="B31" s="33" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201126</v>
+        <v>○ / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210212</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="33" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 201126</v>
+        <v>× / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210212</v>
       </c>
     </row>
     <row r="33" spans="2:2">

--- a/templates/default.xlsx
+++ b/templates/default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakajima_Shinsuke\Documents\work\checklists\cltools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765ECF13-3814-4911-93B0-549BFC73ED24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8AC86D-BBE0-4396-ABEB-7460D17E8CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1334,9 +1334,6 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1393,9 +1390,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1480,6 +1474,12 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1501,7 +1501,88 @@
     <cellStyle name="標準 8" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="標準 9" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="74">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="ＭＳ Ｐゴシック"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2078,45 +2159,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2133,284 +2175,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="4" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3207,89 +2971,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="ＭＳ Ｐゴシック"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <right style="medium">
           <color indexed="64"/>
@@ -3329,6 +3010,145 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="4" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3356,60 +3176,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="88" tableBorderDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="B15:T17" totalsRowCount="1" headerRowDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="B15:T16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="!ID!" totalsRowLabel="集計"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="17">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="更新日" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="19">
       <calculatedColumnFormula>INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[{{H_ITEM}}]))</calculatedColumnFormula>
       <totalsRowFormula>IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="{{H_ITEM}}" dataDxfId="85" totalsRowDxfId="16" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="84" totalsRowDxfId="15" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="83" totalsRowDxfId="14" dataCellStyle="ハイパーリンク">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="{{H_ITEM}}" dataDxfId="0" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="対象外" dataDxfId="1" totalsRowDxfId="18" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ステータス" dataDxfId="57" totalsRowDxfId="17" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="13">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="総項目数" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="16">
       <calculatedColumnFormula>IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$4),COLUMN(checksheet!E$4),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="12">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="問題なし" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="15">
       <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$5),COLUMN(checksheet!E$5),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="11">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="問題あり" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="14">
       <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$6),COLUMN(checksheet!E$6),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="10">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="未確認数" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="13">
       <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$7),COLUMN(checksheet!E$7),1,TRUE,テーブル1[{{H_ITEM}}])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="9">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="消化率" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="12">
       <calculatedColumnFormula>IF(OR($F16="-",G16=0),"-",(H16+I16)/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,(H17+I17)/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="77" totalsRowDxfId="8">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="進捗率" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(OR($F16="-",G16=0),"-",H16/G16)</calculatedColumnFormula>
       <totalsRowFormula>IF(G17&gt;0,H17/G17,0)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="76" totalsRowDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="備考欄" dataDxfId="50" totalsRowDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="作業時間（計画）" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="9" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="作業時間（実績）" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="8" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="73" totalsRowDxfId="4" dataCellStyle="ハイパーリンク">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="残務時間" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="7" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</calculatedColumnFormula>
       <totalsRowFormula>TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="達成率（作業時間）" totalsRowFunction="custom" dataDxfId="46" totalsRowDxfId="6" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($F16="-","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&gt;0,1-SUBTOTAL(109,テーブル1[残務時間])/テーブル1[[#Totals],[作業時間（計画）]],"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="71" totalsRowDxfId="2" dataCellStyle="ハイパーリンク">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="実績/計画" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="5" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($E16="保留","-",IF(テーブル1[作業時間（計画）]&lt;&gt;テーブル1[残務時間], テーブル1[作業時間（実績）]/(テーブル1[作業時間（計画）]-テーブル1[残務時間]),"-"))</calculatedColumnFormula>
       <totalsRowFormula>IF(テーブル1[[#Totals],[作業時間（計画）]]&lt;&gt;SUBTOTAL(109,テーブル1[残務時間]), テーブル1[[#Totals],[作業時間（実績）]]/(テーブル1[[#Totals],[作業時間（計画）]]-SUBTOTAL(109,テーブル1[残務時間])),"-")</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="70" totalsRowDxfId="1" dataCellStyle="ハイパーリンク"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="69" totalsRowDxfId="0" dataCellStyle="ハイパーリンク">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="完了予定日" dataDxfId="44" totalsRowDxfId="4" dataCellStyle="ハイパーリンク"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="進捗" dataDxfId="43" totalsRowDxfId="3" dataCellStyle="ハイパーリンク">
       <calculatedColumnFormula>IF($F16="-","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3770,7 +3590,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="4" customFormat="1" ht="18.75">
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="56" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="3"/>
@@ -3778,9 +3598,9 @@
       <c r="F1" s="3"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -3815,7 +3635,7 @@
       <c r="S2" s="3"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3827,40 +3647,40 @@
       <c r="D6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1">
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
     </row>
     <row r="8" spans="1:20">
       <c r="C8" s="16" t="s">
@@ -3869,19 +3689,19 @@
       <c r="D8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
     </row>
     <row r="9" spans="1:20">
       <c r="C9" s="18" t="s">
@@ -3890,83 +3710,83 @@
       <c r="D9" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
     </row>
     <row r="10" spans="1:20">
       <c r="C10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
       <c r="L10"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
     </row>
     <row r="11" spans="1:20">
       <c r="C11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
     </row>
     <row r="12" spans="1:20">
       <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="49">
         <f ca="1">TODAY()</f>
-        <v>44239</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+        <v>44440</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
     </row>
     <row r="13" spans="1:20" ht="14.25" thickBot="1">
       <c r="C13" s="20" t="s">
@@ -3975,19 +3795,19 @@
       <c r="D13" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
     </row>
     <row r="14" spans="1:20" ht="14.25" thickBot="1"/>
     <row r="15" spans="1:20" s="9" customFormat="1" ht="14.25" thickBot="1">
@@ -4030,19 +3850,19 @@
       <c r="N15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="62" t="s">
+      <c r="O15" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="62" t="s">
+      <c r="P15" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" s="62" t="s">
+      <c r="Q15" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="62" t="s">
+      <c r="R15" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="S15" s="62" t="s">
+      <c r="S15" s="60" t="s">
         <v>45</v>
       </c>
       <c r="T15" s="23" t="s">
@@ -4057,11 +3877,11 @@
         <f ca="1">INDIRECT(ADDRESS(ROW(checksheet!E$13),COLUMN(checksheet!E$13),1,TRUE,テーブル1[{{H_ITEM}}]))</f>
         <v>-</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="48" t="str">
+      <c r="E16" s="71"/>
+      <c r="F16" s="47" t="str">
         <f ca="1">IF($E16&lt;&gt;"","-",INDIRECT(ADDRESS(ROW(checksheet!E$12),COLUMN(checksheet!E$12),1,TRUE,テーブル1[{{H_ITEM}}])))</f>
         <v>チェック可</v>
       </c>
@@ -4089,29 +3909,29 @@
         <f ca="1">IF(OR($F16="-",G16=0),"-",H16/G16)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="65">
+      <c r="M16" s="72"/>
+      <c r="N16" s="63">
         <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$8),COLUMN(checksheet!E$8),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="63">
         <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$9),COLUMN(checksheet!E$9),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="65">
+      <c r="P16" s="63">
         <f ca="1">IF($F16="-","-",INDIRECT(ADDRESS(ROW(checksheet!E$14),COLUMN(checksheet!E$14),1,TRUE,テーブル1[{{H_ITEM}}]))/1440)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="66" t="str">
+      <c r="Q16" s="64" t="str">
         <f ca="1">IF($F16="-","-",IF(テーブル1[作業時間（計画）]&gt;0, 1-テーブル1[残務時間]/テーブル1[作業時間（計画）],"-"))</f>
         <v>-</v>
       </c>
-      <c r="R16" s="66" t="str">
+      <c r="R16" s="64" t="str">
         <f ca="1">IF($E16="保留","-",IF(テーブル1[作業時間（計画）]&lt;&gt;テーブル1[残務時間], テーブル1[作業時間（実績）]/(テーブル1[作業時間（計画）]-テーブル1[残務時間]),"-"))</f>
         <v>-</v>
       </c>
-      <c r="S16" s="63"/>
-      <c r="T16" s="68" t="str">
+      <c r="S16" s="61"/>
+      <c r="T16" s="66" t="str">
         <f ca="1">IF($F16="-","-",IF(テーブル1[進捗率]&gt;=1,"完了",IF(AND(テーブル1[進捗率]&lt;1,テーブル1[完了予定日]&lt;&gt;"",TODAY()&gt;テーブル1[完了予定日]),"遅延","")))</f>
         <v/>
       </c>
@@ -4120,13 +3940,13 @@
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="61" t="str">
+      <c r="C17" s="59" t="str">
         <f ca="1">IF(MAX(last_update_range)&gt;0, MAX(last_update_range), "-")</f>
         <v>-</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="30">
         <f ca="1">SUBTOTAL(109,テーブル1[総項目数])</f>
         <v>1</v>
@@ -4151,41 +3971,41 @@
         <f ca="1">IF(G17&gt;0,H17/G17,0)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="54"/>
-      <c r="N17" s="64">
+      <c r="M17" s="52"/>
+      <c r="N17" s="62">
         <f ca="1">SUBTOTAL(109,テーブル1[作業時間（計画）])</f>
         <v>0</v>
       </c>
-      <c r="O17" s="64">
+      <c r="O17" s="62">
         <f ca="1">SUBTOTAL(109,テーブル1[作業時間（実績）])</f>
         <v>0</v>
       </c>
-      <c r="P17" s="53" t="str">
+      <c r="P17" s="51" t="str">
         <f ca="1">TEXT(SUBTOTAL(109,テーブル1[残務時間]), "[h]:mm") &amp;  " (" &amp;ROUND(SUBTOTAL(109,テーブル1[残務時間])*1440/60/6.5,2) &amp; "人日)"</f>
         <v>0:00 (0人日)</v>
       </c>
-      <c r="Q17" s="67" t="str">
+      <c r="Q17" s="65" t="str">
         <f ca="1">IF(テーブル1[[#Totals],[作業時間（計画）]]&gt;0,1-SUBTOTAL(109,テーブル1[残務時間])/テーブル1[[#Totals],[作業時間（計画）]],"-")</f>
         <v>-</v>
       </c>
-      <c r="R17" s="67" t="str">
+      <c r="R17" s="65" t="str">
         <f ca="1">IF(テーブル1[[#Totals],[作業時間（計画）]]&lt;&gt;SUBTOTAL(109,テーブル1[残務時間]), テーブル1[[#Totals],[作業時間（実績）]]/(テーブル1[[#Totals],[作業時間（計画）]]-SUBTOTAL(109,テーブル1[残務時間])),"-")</f>
         <v>-</v>
       </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
     </row>
     <row r="20" spans="2:20" ht="13.5" customHeight="1"/>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C16:L16 N16:T16">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="1" stopIfTrue="1">
       <formula>$F16="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:K16 N16:T16">
-    <cfRule type="expression" dxfId="45" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="9" stopIfTrue="1">
       <formula>AND($G16=$H16,AND($C16&lt;$D$11,$C16&lt;&gt;"-"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4204,49 +4024,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C17">
-    <cfRule type="timePeriod" dxfId="44" priority="8" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="71" priority="8" timePeriod="today">
       <formula>FLOOR(C16,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I17">
-    <cfRule type="cellIs" dxfId="43" priority="22" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="22" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="42" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="10" stopIfTrue="1" operator="equal">
       <formula>"チェック完了"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="11" stopIfTrue="1" operator="equal">
       <formula>"チェック不可"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="18" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J17">
-    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:I17">
-    <cfRule type="expression" dxfId="38" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="41" stopIfTrue="1">
       <formula>$H16=$G16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="containsText" dxfId="37" priority="6" stopIfTrue="1" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="64" priority="6" stopIfTrue="1" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",T16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
+    <cfRule type="containsText" dxfId="63" priority="7" stopIfTrue="1" operator="containsText" text="遅延">
       <formula>NOT(ISERROR(SEARCH("遅延",T16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16:R17">
-    <cfRule type="cellIs" dxfId="35" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="62" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="5" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="5" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4329,403 +4149,403 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="0" style="42" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="2.5" style="42" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="33.625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="42" customWidth="1"/>
-    <col min="6" max="7" width="14.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33" style="42" customWidth="1"/>
-    <col min="10" max="10" width="21.25" style="42" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.125" style="42" customWidth="1"/>
-    <col min="16" max="17" width="17.25" style="42" customWidth="1"/>
-    <col min="18" max="18" width="9" style="42" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="0" style="41" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="41" customWidth="1"/>
+    <col min="3" max="3" width="2.5" style="41" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="33.625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="41" customWidth="1"/>
+    <col min="6" max="7" width="14.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" style="41" customWidth="1"/>
+    <col min="10" max="10" width="21.25" style="41" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.125" style="41" customWidth="1"/>
+    <col min="16" max="17" width="17.25" style="41" customWidth="1"/>
+    <col min="18" max="18" width="9" style="41" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" hidden="1">
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="2:15" s="35" customFormat="1" ht="18.75">
+    <row r="2" spans="2:15" s="34" customFormat="1" ht="18.75">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:15" s="36" customFormat="1">
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D4" s="38" t="s">
+    <row r="3" spans="2:15" s="35" customFormat="1">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <f t="array" ref="E4">COUNTIF(check_cell,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell)="○")*(VALUE(RIGHT(check_cell,6))&lt;VALUE(start_date)), 1), 0))</f>
         <v>1</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <f ca="1">SUM(OFFSET(O21,0, 0, ROWS(check_cell),1))</f>
         <v>1</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D5" s="39" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <f t="array" ref="E5">SUM(IFERROR(IF((LEFT(check_cell)="○") * (VALUE(RIGHT(check_cell,6))&gt;=VALUE(start_date)), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="38">
         <f ca="1">SUM(OFFSET(P21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D6" s="40" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D6" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <f>COUNTIF(check_cell,"×*")</f>
         <v>0</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D7" s="41" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+    </row>
+    <row r="7" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D7" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <f>E4-(E5+E6)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D8" s="41" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D8" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <f t="array" aca="1" ref="E8" ca="1">SUM(OFFSET(O21,0, 0, ROWS(check_cell),1)*OFFSET(Q21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D9" s="41" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <f ca="1">SUM(OFFSET(G21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D10" s="41" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+    </row>
+    <row r="10" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D10" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <f ca="1">COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "チェック可")</f>
         <v>1</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D11" s="41" t="s">
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+    </row>
+    <row r="11" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D11" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <f ca="1">COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "*チェック*可")</f>
         <v>1</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D12" s="41" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D12" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="38" t="str">
+      <c r="E12" s="37" t="str">
         <f ca="1">IF(E4=0,"-", IF(E11=0, "チェック完了", IF(E10=E11, "チェック可", IF(E10+COUNTIF(OFFSET(M21,0, 0, ROWS(check_cell),1), "一部チェック可")=0, "チェック不可", "一部チェック可"))))</f>
         <v>チェック可</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D13" s="41" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D13" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="45" t="str">
+      <c r="E13" s="44" t="str">
         <f t="array" ref="E13">IF(last_update &gt; 0, last_update, "-")</f>
         <v>-</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D14" s="41" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+    </row>
+    <row r="14" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D14" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <f t="array" aca="1" ref="E14" ca="1">SUM(OFFSET(R21,0, 0, ROWS(check_cell),1))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D15" s="41"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="2:15" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D16" s="41"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="2:18" s="36" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="D17" s="41"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-    </row>
-    <row r="18" spans="2:18" s="36" customFormat="1" collapsed="1">
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="2:18" s="36" customFormat="1">
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D15" s="40"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="2:15" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D16" s="40"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="2:18" s="35" customFormat="1" ht="13.5" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="D17" s="40"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+    </row>
+    <row r="18" spans="2:18" s="35" customFormat="1" collapsed="1">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+    </row>
+    <row r="19" spans="2:18" s="35" customFormat="1">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="43" t="s">
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="44" t="s">
+      <c r="J20" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="44" t="s">
+      <c r="K20" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="42" t="s">
+      <c r="P20" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="Q20" s="42" t="s">
+      <c r="Q20" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="41" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="77" t="s">
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="76"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="46" t="str">
+      <c r="E21" s="74"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="45" t="str">
         <f>IFERROR(MID(checksheet!check_cell, 5, FIND(K21,checksheet!check_cell)-5-3),"")</f>
         <v/>
       </c>
-      <c r="K21" s="69" t="str">
+      <c r="K21" s="67" t="str">
         <f>IF(ISERROR(VALUE(RIGHT(checksheet!check_cell,6))),"",MID(LEFT(checksheet!check_cell, LEN(checksheet!check_cell) - 9),FIND("/", checksheet!check_cell, 5)+2,LEN(checksheet!check_cell)))</f>
         <v/>
       </c>
-      <c r="L21" s="70" t="str">
+      <c r="L21" s="68" t="str">
         <f>IF(ISERROR(VALUE(RIGHT(checksheet!check_cell,6))),"",DATE("20"&amp;LEFT(RIGHT(checksheet!check_cell,6),2),LEFT(RIGHT(checksheet!check_cell,4),2),RIGHT(checksheet!check_cell,2)))</f>
         <v/>
       </c>
-      <c r="M21" s="57" t="str">
+      <c r="M21" s="55" t="str">
         <f ca="1">IF( COUNTBLANK(check_cell_row) + COUNTIF(check_cell_row, "×*") + COUNTIF(check_cell_row, "検証中*") &gt; 0, IF( COUNTIF(check_cell_row, "~&lt; 未実装*") &gt; 0, "一部チェック可", "チェック可"), IF( COUNTIF(check_cell_row, "~&lt; 未実装*") &gt; 0, "チェック不可", IF( COUNTIF(check_cell_row, "○*") &gt; 0, "チェック完了", "-")))</f>
         <v>チェック可</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="41">
         <f t="array" aca="1" ref="O21" ca="1">COUNTIF(check_cell_row,"&lt;&gt;-*") - SUM(IFERROR(IF((LEFT(check_cell_row)="○")*(VALUE(RIGHT(check_cell_row,6))&lt;VALUE(start_date)), 1), 0))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="41">
         <f t="array" aca="1" ref="P21" ca="1">SUM(IFERROR(IF((LEFT(check_cell_row)="○") * (VALUE(RIGHT(check_cell_row,6))&gt;=VALUE(start_date)), 1), 0))</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="42">
+      <c r="Q21" s="41">
         <f t="array" aca="1" ref="Q21" ca="1">IF(COUNTIF(check_cell_row,"&lt;&gt;-")=0, 0, F21/COUNTIF(check_cell_row,"&lt;&gt;-"))</f>
         <v>0</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="41">
         <f ca="1">(O21-P21)*Q21</f>
         <v>0</v>
       </c>
@@ -4734,36 +4554,36 @@
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="M21">
-    <cfRule type="containsText" dxfId="68" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
+    <cfRule type="containsText" dxfId="42" priority="6" stopIfTrue="1" operator="containsText" text="チェック可">
       <formula>NOT(ISERROR(SEARCH("チェック可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
+    <cfRule type="containsText" dxfId="41" priority="20" stopIfTrue="1" operator="containsText" text="チェック完了">
       <formula>NOT(ISERROR(SEARCH("チェック完了",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="21" stopIfTrue="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="21" stopIfTrue="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH("*-",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="39" priority="23" stopIfTrue="1" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",M21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
+    <cfRule type="containsText" dxfId="38" priority="29" stopIfTrue="1" operator="containsText" text="一部チェック可">
       <formula>NOT(ISERROR(SEARCH("一部チェック可",M21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="63" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="1" stopIfTrue="1">
       <formula>COUNTIF(D21,"*※※*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="2" stopIfTrue="1">
       <formula>COUNTIF(D21,"【*】*")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="8" stopIfTrue="1">
       <formula>AND(COUNTIF(D21,"*低優先度*"),$M21&lt;&gt;"-")</formula>
     </cfRule>
     <cfRule type="expression" priority="10" stopIfTrue="1">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="7" stopIfTrue="1">
       <formula>IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="-",FALSE,     IF(MID(OFFSET($D21,0,-1),COLUMNS($D21:D21),1)="x",COUNTIF($M21,"*チェック*可")=0,         COUNTIF(             OFFSET($M$21,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         ),                         4                     )                 ),                 0,                 HEX2DEC(                     MID(                         OFFSET($D$21,-1,-1),                         1+8*HEX2DEC(                             MID(                                 OFFSET($D21,0,-1),                                 LEN(OFFSET($D21,0,-1))-3-4*HEX2DEC(                                     MID(                                         OFFSET($D21,0,-1),                                         COLUMNS($D21:D21),                                         1                                     )                                 ),                                 4                             )                         )+4,                         4                     )                 ),             ),             "*チェック*可"         )=0     ) )</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4771,52 +4591,52 @@
     <cfRule type="expression" priority="51" stopIfTrue="1">
       <formula>$E$4=$E$5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="52" stopIfTrue="1">
       <formula>COUNTIF($E$12,"*チェック可")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="54" stopIfTrue="1">
       <formula>$E$12="チェック不可"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="57" priority="71">
+    <cfRule type="expression" dxfId="31" priority="71">
       <formula>AND($G21="",COUNTIFS($E21,"○*")&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="expression" dxfId="56" priority="72">
+    <cfRule type="expression" dxfId="30" priority="72">
       <formula>AND($F21="",COUNTIFS($E21,"-*")=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="55" priority="17" operator="containsText" text="チェック不可">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="チェック不可">
       <formula>NOT(ISERROR(SEARCH("チェック不可",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="19" stopIfTrue="1">
       <formula>AND(COUNTIF(E21,"○*"),VALUE(RIGHT(E21,6))&lt; VALUE(start_date))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="22">
+    <cfRule type="expression" dxfId="27" priority="22">
       <formula>COUNTIF(E21,"*" &amp; check_today)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="25" stopIfTrue="1" operator="containsText" text="×*">
+    <cfRule type="containsText" dxfId="26" priority="25" stopIfTrue="1" operator="containsText" text="×*">
       <formula>NOT(ISERROR(SEARCH("×*",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="26" stopIfTrue="1" operator="containsText" text="○*">
+    <cfRule type="containsText" dxfId="25" priority="26" stopIfTrue="1" operator="containsText" text="○*">
       <formula>NOT(ISERROR(SEARCH("○*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="27">
+    <cfRule type="expression" dxfId="24" priority="27">
       <formula>COUNTIF(E21,"*" &amp; tester)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
+    <cfRule type="containsText" dxfId="23" priority="32" stopIfTrue="1" operator="containsText" text="検証中">
       <formula>NOT(ISERROR(SEARCH("検証中",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
+    <cfRule type="containsText" dxfId="22" priority="48" stopIfTrue="1" operator="containsText" text="*低優先度*">
       <formula>NOT(ISERROR(SEARCH("*低優先度*",E21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="49" stopIfTrue="1">
       <formula>LEFT(E21,1)="-"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
+    <cfRule type="containsText" dxfId="20" priority="50" stopIfTrue="1" operator="containsText" text="*未実装*">
       <formula>NOT(ISERROR(SEARCH("*未実装*",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4848,159 +4668,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="2.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="32" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="33" t="str">
+      <c r="B3" s="32" t="str">
         <f>index!D13</f>
         <v>{{_TESTER}}</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="51" t="str">
+      <c r="B6" s="50" t="str">
         <f ca="1">TEXT(index!D12,"yymmdd")</f>
-        <v>210212</v>
+        <v>210901</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="51" t="str">
+      <c r="B9" s="50" t="str">
         <f>TEXT(IF(ISNUMBER(index!D11), index!D11,1),"yymmdd")</f>
         <v>000101</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="33" t="str">
+      <c r="B12" s="32" t="str">
         <f>"- 対象外（" &amp; index!D6 &amp;"） -"</f>
         <v>- 対象外（{{VERSION}}） -</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="33" t="str">
+      <c r="B15" s="32" t="str">
         <f>"- 低優先度 -"</f>
         <v>- 低優先度 -</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="33" t="str">
+      <c r="B18" s="32" t="str">
         <f>"検証中 / " &amp; index!D13</f>
         <v>検証中 / {{_TESTER}}</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="33" t="str">
+      <c r="B24" s="32" t="str">
         <f>"MN:(" &amp; index!D7 &amp;"), STA:(" &amp;  index!D8  &amp; ")"</f>
         <v>MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}})</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="33" t="str">
+      <c r="B25" s="32" t="str">
         <f>IF( index!D7="",  index!D8, IF(index!D8="", index!D7, B24))</f>
         <v>MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}})</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="33" t="str">
+      <c r="B28" s="32" t="str">
         <f ca="1">" / " &amp; B25 &amp;  " / " &amp; index!D13 &amp; " / " &amp; B6</f>
-        <v xml:space="preserve"> / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210212</v>
+        <v xml:space="preserve"> / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210901</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="33" t="str">
+      <c r="B31" s="32" t="str">
         <f ca="1">"○" &amp; B28</f>
-        <v>○ / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210212</v>
+        <v>○ / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210901</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="33" t="str">
+      <c r="B32" s="32" t="str">
         <f ca="1">"×" &amp; B28</f>
-        <v>× / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210212</v>
+        <v>× / MN:({{_VERSION_MAIN}}), STA:({{_VERSION_STATION}}) / {{_TESTER}} / 210901</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="33" t="str">
+      <c r="B33" s="32" t="str">
         <f>B18</f>
         <v>検証中 / {{_TESTER}}</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="33" t="str">
+      <c r="B34" s="32" t="str">
         <f>B21</f>
         <v>&lt; 未実装 &gt;</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="33" t="str">
+      <c r="B35" s="32" t="str">
         <f>B12</f>
         <v>- 対象外（{{VERSION}}） -</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="33" t="str">
+      <c r="B36" s="32" t="str">
         <f>B15</f>
         <v>- 低優先度 -</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>10</v>
       </c>
     </row>
